--- a/files/NAPQ.xlsx
+++ b/files/NAPQ.xlsx
@@ -403,7 +403,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>44327.38541666666</v>
+        <v>44333.38541666666</v>
       </c>
       <c r="B2">
         <v>14712.7</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>44327.38542824074</v>
+        <v>44333.38542824074</v>
       </c>
       <c r="B3">
         <v>14711</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>44327.38543981482</v>
+        <v>44333.38543981482</v>
       </c>
       <c r="B4">
         <v>14713.5</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>44327.38545138889</v>
+        <v>44333.38545138889</v>
       </c>
       <c r="B5">
         <v>14710</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>44327.38546296296</v>
+        <v>44333.38546296296</v>
       </c>
       <c r="B6">
         <v>14710</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>44327.38547453703</v>
+        <v>44333.38547453703</v>
       </c>
       <c r="B7">
         <v>14709</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>44327.38548611111</v>
+        <v>44333.38548611111</v>
       </c>
       <c r="B8">
         <v>14708.5</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>44327.38549768519</v>
+        <v>44333.38549768519</v>
       </c>
       <c r="B9">
         <v>14710</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>44327.38550925926</v>
+        <v>44333.38550925926</v>
       </c>
       <c r="B10">
         <v>14709.8</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>44327.38552083333</v>
+        <v>44333.38552083333</v>
       </c>
       <c r="B11">
         <v>14711</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>44327.38553240741</v>
+        <v>44333.38553240741</v>
       </c>
       <c r="B12">
         <v>14711</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>44327.38554398148</v>
+        <v>44333.38554398148</v>
       </c>
       <c r="B13">
         <v>14719</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>44327.38555555556</v>
+        <v>44333.38555555556</v>
       </c>
       <c r="B14">
         <v>14709.5</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>44327.38556712963</v>
+        <v>44333.38556712963</v>
       </c>
       <c r="B15">
         <v>14705.55</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>44327.3855787037</v>
+        <v>44333.3855787037</v>
       </c>
       <c r="B16">
         <v>14710.5</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>44327.38559027778</v>
+        <v>44333.38559027778</v>
       </c>
       <c r="B17">
         <v>14712.6</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>44327.38560185185</v>
+        <v>44333.38560185185</v>
       </c>
       <c r="B18">
         <v>14714</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>44327.38561342593</v>
+        <v>44333.38561342593</v>
       </c>
       <c r="B19">
         <v>14718.95</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>44327.385625</v>
+        <v>44333.385625</v>
       </c>
       <c r="B20">
         <v>14722.3</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>44327.38563657407</v>
+        <v>44333.38563657407</v>
       </c>
       <c r="B21">
         <v>14725</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>44327.38564814815</v>
+        <v>44333.38564814815</v>
       </c>
       <c r="B22">
         <v>14728.8</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>44327.38565972223</v>
+        <v>44333.38565972223</v>
       </c>
       <c r="B23">
         <v>14725.2</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>44327.3856712963</v>
+        <v>44333.3856712963</v>
       </c>
       <c r="B24">
         <v>14729.15</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>44327.38568287037</v>
+        <v>44333.38568287037</v>
       </c>
       <c r="B25">
         <v>14732.3</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>44327.38569444444</v>
+        <v>44333.38569444444</v>
       </c>
       <c r="B26">
         <v>14737.05</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>44327.38570601852</v>
+        <v>44333.38570601852</v>
       </c>
       <c r="B27">
         <v>14731</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>44327.3857175926</v>
+        <v>44333.3857175926</v>
       </c>
       <c r="B28">
         <v>14730</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>44327.38572916666</v>
+        <v>44333.38572916666</v>
       </c>
       <c r="B29">
         <v>14728.5</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>44327.38574074074</v>
+        <v>44333.38574074074</v>
       </c>
       <c r="B30">
         <v>14730.5</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>44327.38575231482</v>
+        <v>44333.38575231482</v>
       </c>
       <c r="B31">
         <v>14729.95</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>44327.38576388889</v>
+        <v>44333.38576388889</v>
       </c>
       <c r="B32">
         <v>14731.7</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>44327.38577546296</v>
+        <v>44333.38577546296</v>
       </c>
       <c r="B33">
         <v>14732.7</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>44327.38578703703</v>
+        <v>44333.38578703703</v>
       </c>
       <c r="B34">
         <v>14733.25</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>44327.38579861111</v>
+        <v>44333.38579861111</v>
       </c>
       <c r="B35">
         <v>14733.45</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>44327.38581018519</v>
+        <v>44333.38581018519</v>
       </c>
       <c r="B36">
         <v>14731.9</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>44327.38582175926</v>
+        <v>44333.38582175926</v>
       </c>
       <c r="B37">
         <v>14732.5</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>44327.38583333333</v>
+        <v>44333.38583333333</v>
       </c>
       <c r="B38">
         <v>14730.1</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>44327.38584490741</v>
+        <v>44333.38584490741</v>
       </c>
       <c r="B39">
         <v>14728.5</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>44327.38585648148</v>
+        <v>44333.38585648148</v>
       </c>
       <c r="B40">
         <v>14727</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>44327.38586805556</v>
+        <v>44333.38586805556</v>
       </c>
       <c r="B41">
         <v>14728.35</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>44327.38587962963</v>
+        <v>44333.38587962963</v>
       </c>
       <c r="B42">
         <v>14725</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>44327.3858912037</v>
+        <v>44333.3858912037</v>
       </c>
       <c r="B43">
         <v>14726.55</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>44327.38590277778</v>
+        <v>44333.38590277778</v>
       </c>
       <c r="B44">
         <v>14724.9</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>44327.38591435185</v>
+        <v>44333.38591435185</v>
       </c>
       <c r="B45">
         <v>14724.95</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>44327.38592592593</v>
+        <v>44333.38592592593</v>
       </c>
       <c r="B46">
         <v>14724.95</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>44327.3859375</v>
+        <v>44333.3859375</v>
       </c>
       <c r="B47">
         <v>14724.95</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>44327.38594907407</v>
+        <v>44333.38594907407</v>
       </c>
       <c r="B48">
         <v>14724.1</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>44327.38596064815</v>
+        <v>44333.38596064815</v>
       </c>
       <c r="B49">
         <v>14725</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>44327.38597222222</v>
+        <v>44333.38597222222</v>
       </c>
       <c r="B50">
         <v>14724.3</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>44327.3859837963</v>
+        <v>44333.3859837963</v>
       </c>
       <c r="B51">
         <v>14723</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>44327.38599537037</v>
+        <v>44333.38599537037</v>
       </c>
       <c r="B52">
         <v>14725</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>44327.38600694444</v>
+        <v>44333.38600694444</v>
       </c>
       <c r="B53">
         <v>14723.65</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>44327.38601851852</v>
+        <v>44333.38601851852</v>
       </c>
       <c r="B54">
         <v>14724.45</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>44327.3860300926</v>
+        <v>44333.3860300926</v>
       </c>
       <c r="B55">
         <v>14723.45</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>44327.38604166666</v>
+        <v>44333.38604166666</v>
       </c>
       <c r="B56">
         <v>14723.5</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>44327.38605324074</v>
+        <v>44333.38605324074</v>
       </c>
       <c r="B57">
         <v>14722</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>44327.38606481482</v>
+        <v>44333.38606481482</v>
       </c>
       <c r="B58">
         <v>14723.5</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>44327.38607638889</v>
+        <v>44333.38607638889</v>
       </c>
       <c r="B59">
         <v>14723.55</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>44327.38608796296</v>
+        <v>44333.38608796296</v>
       </c>
       <c r="B60">
         <v>14722.7</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>44327.38609953703</v>
+        <v>44333.38609953703</v>
       </c>
       <c r="B61">
         <v>14723.65</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>44327.38611111111</v>
+        <v>44333.38611111111</v>
       </c>
       <c r="B62">
         <v>14726</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>44327.38612268519</v>
+        <v>44333.38612268519</v>
       </c>
       <c r="B63">
         <v>14729.2</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>44327.38613425926</v>
+        <v>44333.38613425926</v>
       </c>
       <c r="B64">
         <v>14728.25</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>44327.38614583333</v>
+        <v>44333.38614583333</v>
       </c>
       <c r="B65">
         <v>14730</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>44327.38615740741</v>
+        <v>44333.38615740741</v>
       </c>
       <c r="B66">
         <v>14731</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>44327.38616898148</v>
+        <v>44333.38616898148</v>
       </c>
       <c r="B67">
         <v>14729.05</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>44327.38618055556</v>
+        <v>44333.38618055556</v>
       </c>
       <c r="B68">
         <v>14728.55</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>44327.38619212963</v>
+        <v>44333.38619212963</v>
       </c>
       <c r="B69">
         <v>14729.2</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>44327.3862037037</v>
+        <v>44333.3862037037</v>
       </c>
       <c r="B70">
         <v>14729.2</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>44327.38621527778</v>
+        <v>44333.38621527778</v>
       </c>
       <c r="B71">
         <v>14724.25</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>44327.38622685185</v>
+        <v>44333.38622685185</v>
       </c>
       <c r="B72">
         <v>14726.05</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>44327.38623842593</v>
+        <v>44333.38623842593</v>
       </c>
       <c r="B73">
         <v>14723.65</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>44327.38625</v>
+        <v>44333.38625</v>
       </c>
       <c r="B74">
         <v>14724.45</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>44327.38626157407</v>
+        <v>44333.38626157407</v>
       </c>
       <c r="B75">
         <v>14726.15</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>44327.38627314815</v>
+        <v>44333.38627314815</v>
       </c>
       <c r="B76">
         <v>14723.25</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>44327.38628472222</v>
+        <v>44333.38628472222</v>
       </c>
       <c r="B77">
         <v>14727.9</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>44327.3862962963</v>
+        <v>44333.3862962963</v>
       </c>
       <c r="B78">
         <v>14725.7</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>44327.38630787037</v>
+        <v>44333.38630787037</v>
       </c>
       <c r="B79">
         <v>14725.25</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>44327.38631944444</v>
+        <v>44333.38631944444</v>
       </c>
       <c r="B80">
         <v>14725</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>44327.38633101852</v>
+        <v>44333.38633101852</v>
       </c>
       <c r="B81">
         <v>14725</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>44327.3863425926</v>
+        <v>44333.3863425926</v>
       </c>
       <c r="B82">
         <v>14725.05</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>44327.38635416667</v>
+        <v>44333.38635416667</v>
       </c>
       <c r="B83">
         <v>14726.5</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>44327.38636574074</v>
+        <v>44333.38636574074</v>
       </c>
       <c r="B84">
         <v>14726.25</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>44327.38637731481</v>
+        <v>44333.38637731481</v>
       </c>
       <c r="B85">
         <v>14727.2</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>44327.38638888889</v>
+        <v>44333.38638888889</v>
       </c>
       <c r="B86">
         <v>14727.3</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>44327.38640046296</v>
+        <v>44333.38640046296</v>
       </c>
       <c r="B87">
         <v>14726.25</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>44327.38641203703</v>
+        <v>44333.38641203703</v>
       </c>
       <c r="B88">
         <v>14726.25</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>44327.38642361111</v>
+        <v>44333.38642361111</v>
       </c>
       <c r="B89">
         <v>14726.25</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>44327.38643518519</v>
+        <v>44333.38643518519</v>
       </c>
       <c r="B90">
         <v>14727</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>44327.38644675926</v>
+        <v>44333.38644675926</v>
       </c>
       <c r="B91">
         <v>14727.55</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>44327.38645833333</v>
+        <v>44333.38645833333</v>
       </c>
       <c r="B92">
         <v>14726</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>44327.3864699074</v>
+        <v>44333.3864699074</v>
       </c>
       <c r="B93">
         <v>14726.8</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>44327.38648148148</v>
+        <v>44333.38648148148</v>
       </c>
       <c r="B94">
         <v>14726.05</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>44327.38649305556</v>
+        <v>44333.38649305556</v>
       </c>
       <c r="B95">
         <v>14726</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>44327.38650462963</v>
+        <v>44333.38650462963</v>
       </c>
       <c r="B96">
         <v>14727</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>44327.3865162037</v>
+        <v>44333.3865162037</v>
       </c>
       <c r="B97">
         <v>14727.05</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>44327.38652777778</v>
+        <v>44333.38652777778</v>
       </c>
       <c r="B98">
         <v>14727.55</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>44327.38653935185</v>
+        <v>44333.38653935185</v>
       </c>
       <c r="B99">
         <v>14727.55</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>44327.38655092593</v>
+        <v>44333.38655092593</v>
       </c>
       <c r="B100">
         <v>14727.5</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>44327.3865625</v>
+        <v>44333.3865625</v>
       </c>
       <c r="B101">
         <v>14728</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>44327.38657407407</v>
+        <v>44333.38657407407</v>
       </c>
       <c r="B102">
         <v>14727.55</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>44327.38658564815</v>
+        <v>44333.38658564815</v>
       </c>
       <c r="B103">
         <v>14727.55</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>44327.38659722222</v>
+        <v>44333.38659722222</v>
       </c>
       <c r="B104">
         <v>14727.05</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>44327.3866087963</v>
+        <v>44333.3866087963</v>
       </c>
       <c r="B105">
         <v>14726</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>44327.38662037037</v>
+        <v>44333.38662037037</v>
       </c>
       <c r="B106">
         <v>14726</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>44327.38663194444</v>
+        <v>44333.38663194444</v>
       </c>
       <c r="B107">
         <v>14724.5</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>44327.38664351852</v>
+        <v>44333.38664351852</v>
       </c>
       <c r="B108">
         <v>14725</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>44327.3866550926</v>
+        <v>44333.3866550926</v>
       </c>
       <c r="B109">
         <v>14725.6</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>44327.38666666667</v>
+        <v>44333.38666666667</v>
       </c>
       <c r="B110">
         <v>14723</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>44327.38667824074</v>
+        <v>44333.38667824074</v>
       </c>
       <c r="B111">
         <v>14725</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>44327.38668981481</v>
+        <v>44333.38668981481</v>
       </c>
       <c r="B112">
         <v>14725.95</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>44327.38670138889</v>
+        <v>44333.38670138889</v>
       </c>
       <c r="B113">
         <v>14726.5</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>44327.38671296297</v>
+        <v>44333.38671296297</v>
       </c>
       <c r="B114">
         <v>14727</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>44327.38672453703</v>
+        <v>44333.38672453703</v>
       </c>
       <c r="B115">
         <v>14727.5</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>44327.38673611111</v>
+        <v>44333.38673611111</v>
       </c>
       <c r="B116">
         <v>14727</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>44327.38674768519</v>
+        <v>44333.38674768519</v>
       </c>
       <c r="B117">
         <v>14728.55</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>44327.38675925926</v>
+        <v>44333.38675925926</v>
       </c>
       <c r="B118">
         <v>14729</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>44327.38677083333</v>
+        <v>44333.38677083333</v>
       </c>
       <c r="B119">
         <v>14728.7</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>44327.3867824074</v>
+        <v>44333.3867824074</v>
       </c>
       <c r="B120">
         <v>14728.55</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>44327.38679398148</v>
+        <v>44333.38679398148</v>
       </c>
       <c r="B121">
         <v>14727.5</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>44327.38680555556</v>
+        <v>44333.38680555556</v>
       </c>
       <c r="B122">
         <v>14729.45</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>44327.38681712963</v>
+        <v>44333.38681712963</v>
       </c>
       <c r="B123">
         <v>14727.55</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>44327.3868287037</v>
+        <v>44333.3868287037</v>
       </c>
       <c r="B124">
         <v>14727.05</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>44327.38684027778</v>
+        <v>44333.38684027778</v>
       </c>
       <c r="B125">
         <v>14728.55</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>44327.38685185185</v>
+        <v>44333.38685185185</v>
       </c>
       <c r="B126">
         <v>14727.5</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>44327.38686342593</v>
+        <v>44333.38686342593</v>
       </c>
       <c r="B127">
         <v>14725</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>44327.386875</v>
+        <v>44333.386875</v>
       </c>
       <c r="B128">
         <v>14725.05</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>44327.38688657407</v>
+        <v>44333.38688657407</v>
       </c>
       <c r="B129">
         <v>14722.7</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>44327.38689814815</v>
+        <v>44333.38689814815</v>
       </c>
       <c r="B130">
         <v>14724.55</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>44327.38690972222</v>
+        <v>44333.38690972222</v>
       </c>
       <c r="B131">
         <v>14723</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>44327.3869212963</v>
+        <v>44333.3869212963</v>
       </c>
       <c r="B132">
         <v>14721.95</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>44327.38693287037</v>
+        <v>44333.38693287037</v>
       </c>
       <c r="B133">
         <v>14722.5</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>44327.38694444444</v>
+        <v>44333.38694444444</v>
       </c>
       <c r="B134">
         <v>14723</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>44327.38695601852</v>
+        <v>44333.38695601852</v>
       </c>
       <c r="B135">
         <v>14723</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>44327.3869675926</v>
+        <v>44333.3869675926</v>
       </c>
       <c r="B136">
         <v>14723</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>44327.38697916667</v>
+        <v>44333.38697916667</v>
       </c>
       <c r="B137">
         <v>14721.75</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>44327.38699074074</v>
+        <v>44333.38699074074</v>
       </c>
       <c r="B138">
         <v>14720.25</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>44327.38700231481</v>
+        <v>44333.38700231481</v>
       </c>
       <c r="B139">
         <v>14721.55</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>44327.38701388889</v>
+        <v>44333.38701388889</v>
       </c>
       <c r="B140">
         <v>14720.5</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>44327.38702546297</v>
+        <v>44333.38702546297</v>
       </c>
       <c r="B141">
         <v>14720.1</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>44327.38703703704</v>
+        <v>44333.38703703704</v>
       </c>
       <c r="B142">
         <v>14720.1</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>44327.38704861111</v>
+        <v>44333.38704861111</v>
       </c>
       <c r="B143">
         <v>14718.4</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>44327.38706018519</v>
+        <v>44333.38706018519</v>
       </c>
       <c r="B144">
         <v>14718</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>44327.38707175926</v>
+        <v>44333.38707175926</v>
       </c>
       <c r="B145">
         <v>14717.05</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>44327.38708333333</v>
+        <v>44333.38708333333</v>
       </c>
       <c r="B146">
         <v>14717.2</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>44327.3870949074</v>
+        <v>44333.3870949074</v>
       </c>
       <c r="B147">
         <v>14718</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>44327.38710648148</v>
+        <v>44333.38710648148</v>
       </c>
       <c r="B148">
         <v>14718</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>44327.38711805556</v>
+        <v>44333.38711805556</v>
       </c>
       <c r="B149">
         <v>14718.1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>44327.38712962963</v>
+        <v>44333.38712962963</v>
       </c>
       <c r="B150">
         <v>14716.55</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>44327.3871412037</v>
+        <v>44333.3871412037</v>
       </c>
       <c r="B151">
         <v>14717.2</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>44327.38715277778</v>
+        <v>44333.38715277778</v>
       </c>
       <c r="B152">
         <v>14718.1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>44327.38716435185</v>
+        <v>44333.38716435185</v>
       </c>
       <c r="B153">
         <v>14715.65</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>44327.38717592593</v>
+        <v>44333.38717592593</v>
       </c>
       <c r="B154">
         <v>14718</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>44327.3871875</v>
+        <v>44333.3871875</v>
       </c>
       <c r="B155">
         <v>14717.7</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>44327.38719907407</v>
+        <v>44333.38719907407</v>
       </c>
       <c r="B156">
         <v>14717.2</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>44327.38721064815</v>
+        <v>44333.38721064815</v>
       </c>
       <c r="B157">
         <v>14716.1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>44327.3872337963</v>
+        <v>44333.3872337963</v>
       </c>
       <c r="B159">
         <v>14716.55</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>44327.38724537037</v>
+        <v>44333.38724537037</v>
       </c>
       <c r="B160">
         <v>14715.7</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>44327.38725694444</v>
+        <v>44333.38725694444</v>
       </c>
       <c r="B161">
         <v>14714.2</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>44327.38726851852</v>
+        <v>44333.38726851852</v>
       </c>
       <c r="B162">
         <v>14713</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>44327.38728009259</v>
+        <v>44333.38728009259</v>
       </c>
       <c r="B163">
         <v>14713</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>44327.38729166667</v>
+        <v>44333.38729166667</v>
       </c>
       <c r="B164">
         <v>14710</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>44327.38731481481</v>
+        <v>44333.38731481481</v>
       </c>
       <c r="B166">
         <v>14709.225</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>44327.38732638889</v>
+        <v>44333.38732638889</v>
       </c>
       <c r="B167">
         <v>14709.05</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>44327.38733796297</v>
+        <v>44333.38733796297</v>
       </c>
       <c r="B168">
         <v>14711.25</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>44327.38736111111</v>
+        <v>44333.38736111111</v>
       </c>
       <c r="B170">
         <v>14711.1</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>44327.38737268518</v>
+        <v>44333.38737268518</v>
       </c>
       <c r="B171">
         <v>14712.9</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>44327.38738425926</v>
+        <v>44333.38738425926</v>
       </c>
       <c r="B172">
         <v>14715.25</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>44327.38739583334</v>
+        <v>44333.38739583334</v>
       </c>
       <c r="B173">
         <v>14715.15</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>44327.38741898148</v>
+        <v>44333.38741898148</v>
       </c>
       <c r="B175">
         <v>14714.6</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>44327.38743055556</v>
+        <v>44333.38743055556</v>
       </c>
       <c r="B176">
         <v>14712.05</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>44327.3874537037</v>
+        <v>44333.3874537037</v>
       </c>
       <c r="B178">
         <v>14711.525</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>44327.38746527778</v>
+        <v>44333.38746527778</v>
       </c>
       <c r="B179">
         <v>14711.55</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>44327.38747685185</v>
+        <v>44333.38747685185</v>
       </c>
       <c r="B180">
         <v>14711.55</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>44327.3875</v>
+        <v>44333.3875</v>
       </c>
       <c r="B182">
         <v>14711.7</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>44327.38751157407</v>
+        <v>44333.38751157407</v>
       </c>
       <c r="B183">
         <v>14713</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>44327.38752314815</v>
+        <v>44333.38752314815</v>
       </c>
       <c r="B184">
         <v>14711</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>44327.38753472222</v>
+        <v>44333.38753472222</v>
       </c>
       <c r="B185">
         <v>14711.8</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>44327.3875462963</v>
+        <v>44333.3875462963</v>
       </c>
       <c r="B186">
         <v>14712</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>44327.38755787037</v>
+        <v>44333.38755787037</v>
       </c>
       <c r="B187">
         <v>14711.7</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>44327.38758101852</v>
+        <v>44333.38758101852</v>
       </c>
       <c r="B189">
         <v>14711.1</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>44327.38759259259</v>
+        <v>44333.38759259259</v>
       </c>
       <c r="B190">
         <v>14711.05</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>44327.38760416667</v>
+        <v>44333.38760416667</v>
       </c>
       <c r="B191">
         <v>14711</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>44327.38761574074</v>
+        <v>44333.38761574074</v>
       </c>
       <c r="B192">
         <v>14710.2</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>44327.38762731481</v>
+        <v>44333.38762731481</v>
       </c>
       <c r="B193">
         <v>14710.15</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2">
-        <v>44327.38763888889</v>
+        <v>44333.38763888889</v>
       </c>
       <c r="B194">
         <v>14710.1</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>44327.38766203704</v>
+        <v>44333.38766203704</v>
       </c>
       <c r="B196">
         <v>14711</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>44327.38767361111</v>
+        <v>44333.38767361111</v>
       </c>
       <c r="B197">
         <v>14711.5</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>44327.38768518518</v>
+        <v>44333.38768518518</v>
       </c>
       <c r="B198">
         <v>14711.6</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>44327.38770833334</v>
+        <v>44333.38770833334</v>
       </c>
       <c r="B200">
         <v>14711.05</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>44327.3877199074</v>
+        <v>44333.3877199074</v>
       </c>
       <c r="B201">
         <v>14711.45</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>44327.38773148148</v>
+        <v>44333.38773148148</v>
       </c>
       <c r="B202">
         <v>14713.3</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>44327.38775462963</v>
+        <v>44333.38775462963</v>
       </c>
       <c r="B204">
         <v>14711.5</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>44327.3877662037</v>
+        <v>44333.3877662037</v>
       </c>
       <c r="B205">
         <v>14712.75</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>44327.38777777777</v>
+        <v>44333.38777777777</v>
       </c>
       <c r="B206">
         <v>14710</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>44327.38778935185</v>
+        <v>44333.38778935185</v>
       </c>
       <c r="B207">
         <v>14710.3</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>44327.38782407407</v>
+        <v>44333.38782407407</v>
       </c>
       <c r="B209">
         <v>14709.925</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2">
-        <v>44327.38783564815</v>
+        <v>44333.38783564815</v>
       </c>
       <c r="B210">
         <v>14709.5</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>44327.38784722222</v>
+        <v>44333.38784722222</v>
       </c>
       <c r="B211">
         <v>14710.75</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2">
-        <v>44327.38787037037</v>
+        <v>44333.38787037037</v>
       </c>
       <c r="B213">
         <v>14709.65</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>44327.38788194444</v>
+        <v>44333.38788194444</v>
       </c>
       <c r="B214">
         <v>14709.3</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>44327.38789351852</v>
+        <v>44333.38789351852</v>
       </c>
       <c r="B215">
         <v>14709.3</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>44327.38790509259</v>
+        <v>44333.38790509259</v>
       </c>
       <c r="B216">
         <v>14710</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>44327.38791666667</v>
+        <v>44333.38791666667</v>
       </c>
       <c r="B217">
         <v>14709.15</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>44327.38792824074</v>
+        <v>44333.38792824074</v>
       </c>
       <c r="B218">
         <v>14709.5</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>44327.38795138889</v>
+        <v>44333.38795138889</v>
       </c>
       <c r="B220">
         <v>14709.625</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>44327.38796296297</v>
+        <v>44333.38796296297</v>
       </c>
       <c r="B221">
         <v>14711</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>44327.38798611111</v>
+        <v>44333.38798611111</v>
       </c>
       <c r="B223">
         <v>14710.1</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>44327.38799768518</v>
+        <v>44333.38799768518</v>
       </c>
       <c r="B224">
         <v>14712.75</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>44327.38800925926</v>
+        <v>44333.38800925926</v>
       </c>
       <c r="B225">
         <v>14712.6</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>44327.38802083334</v>
+        <v>44333.38802083334</v>
       </c>
       <c r="B226">
         <v>14712.65</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>44327.38804398148</v>
+        <v>44333.38804398148</v>
       </c>
       <c r="B228">
         <v>14712.575</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>44327.38806712963</v>
+        <v>44333.38806712963</v>
       </c>
       <c r="B230">
         <v>14712.55</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>44327.38807870371</v>
+        <v>44333.38807870371</v>
       </c>
       <c r="B231">
         <v>14712.85</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>44327.38809027777</v>
+        <v>44333.38809027777</v>
       </c>
       <c r="B232">
         <v>14712.45</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>44327.38810185185</v>
+        <v>44333.38810185185</v>
       </c>
       <c r="B233">
         <v>14710</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>44327.388125</v>
+        <v>44333.388125</v>
       </c>
       <c r="B235">
         <v>14709.65</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>44327.38813657407</v>
+        <v>44333.38813657407</v>
       </c>
       <c r="B236">
         <v>14709.3</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>44327.38814814815</v>
+        <v>44333.38814814815</v>
       </c>
       <c r="B237">
         <v>14710.25</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>44327.3881712963</v>
+        <v>44333.3881712963</v>
       </c>
       <c r="B239">
         <v>14709.3</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>44327.38818287037</v>
+        <v>44333.38818287037</v>
       </c>
       <c r="B240">
         <v>14710.575</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>44327.38819444444</v>
+        <v>44333.38819444444</v>
       </c>
       <c r="B241">
         <v>14710.5</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2">
-        <v>44327.38820601852</v>
+        <v>44333.38820601852</v>
       </c>
       <c r="B242">
         <v>14710.75</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>44327.38822916667</v>
+        <v>44333.38822916667</v>
       </c>
       <c r="B244">
         <v>14711.15</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>44327.38824074074</v>
+        <v>44333.38824074074</v>
       </c>
       <c r="B245">
         <v>14711.6</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>44327.38825231481</v>
+        <v>44333.38825231481</v>
       </c>
       <c r="B246">
         <v>14710.65</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2">
-        <v>44327.38827546296</v>
+        <v>44333.38827546296</v>
       </c>
       <c r="B248">
         <v>14710.65</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2">
-        <v>44327.38828703704</v>
+        <v>44333.38828703704</v>
       </c>
       <c r="B249">
         <v>14710.65</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2">
-        <v>44327.38829861111</v>
+        <v>44333.38829861111</v>
       </c>
       <c r="B250">
         <v>14711</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2">
-        <v>44327.38831018518</v>
+        <v>44333.38831018518</v>
       </c>
       <c r="B251">
         <v>14710.5</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2">
-        <v>44327.38833333334</v>
+        <v>44333.38833333334</v>
       </c>
       <c r="B253">
         <v>14709.3</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2">
-        <v>44327.38834490741</v>
+        <v>44333.38834490741</v>
       </c>
       <c r="B254">
         <v>14710.25</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2">
-        <v>44327.38835648148</v>
+        <v>44333.38835648148</v>
       </c>
       <c r="B255">
         <v>14710</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2">
-        <v>44327.38836805556</v>
+        <v>44333.38836805556</v>
       </c>
       <c r="B256">
         <v>14707.3</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2">
-        <v>44327.38837962963</v>
+        <v>44333.38837962963</v>
       </c>
       <c r="B257">
         <v>14707</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2">
-        <v>44327.38839120371</v>
+        <v>44333.38839120371</v>
       </c>
       <c r="B258">
         <v>14706.35</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2">
-        <v>44327.38841435185</v>
+        <v>44333.38841435185</v>
       </c>
       <c r="B260">
         <v>14707.55</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2">
-        <v>44327.38842592593</v>
+        <v>44333.38842592593</v>
       </c>
       <c r="B261">
         <v>14709.55</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2">
-        <v>44327.3884375</v>
+        <v>44333.3884375</v>
       </c>
       <c r="B262">
         <v>14705</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2">
-        <v>44327.38846064815</v>
+        <v>44333.38846064815</v>
       </c>
       <c r="B264">
         <v>14707.75</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2">
-        <v>44327.38847222222</v>
+        <v>44333.38847222222</v>
       </c>
       <c r="B265">
         <v>14705.5</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2">
-        <v>44327.3884837963</v>
+        <v>44333.3884837963</v>
       </c>
       <c r="B266">
         <v>14706.5</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2">
-        <v>44327.38850694444</v>
+        <v>44333.38850694444</v>
       </c>
       <c r="B268">
         <v>14706.25</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2">
-        <v>44327.38851851852</v>
+        <v>44333.38851851852</v>
       </c>
       <c r="B269">
         <v>14708</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>44327.38854166667</v>
+        <v>44333.38854166667</v>
       </c>
       <c r="B271">
         <v>14706.55</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>44327.38855324074</v>
+        <v>44333.38855324074</v>
       </c>
       <c r="B272">
         <v>14707</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2">
-        <v>44327.38856481481</v>
+        <v>44333.38856481481</v>
       </c>
       <c r="B273">
         <v>14704.6</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2">
-        <v>44327.38857638889</v>
+        <v>44333.38857638889</v>
       </c>
       <c r="B274">
         <v>14705</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2">
-        <v>44327.38858796296</v>
+        <v>44333.38858796296</v>
       </c>
       <c r="B275">
         <v>14703.95</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2">
-        <v>44327.38859953704</v>
+        <v>44333.38859953704</v>
       </c>
       <c r="B276">
         <v>14705</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2">
-        <v>44327.38861111111</v>
+        <v>44333.38861111111</v>
       </c>
       <c r="B277">
         <v>14703.85</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2">
-        <v>44327.38862268518</v>
+        <v>44333.38862268518</v>
       </c>
       <c r="B278">
         <v>14704.6</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2">
-        <v>44327.38864583334</v>
+        <v>44333.38864583334</v>
       </c>
       <c r="B280">
         <v>14704.9</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2">
-        <v>44327.38866898148</v>
+        <v>44333.38866898148</v>
       </c>
       <c r="B282">
         <v>14707.9</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2">
-        <v>44327.38868055555</v>
+        <v>44333.38868055555</v>
       </c>
       <c r="B283">
         <v>14706.05</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2">
-        <v>44327.38869212963</v>
+        <v>44333.38869212963</v>
       </c>
       <c r="B284">
         <v>14706.6</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2">
-        <v>44327.38870370371</v>
+        <v>44333.38870370371</v>
       </c>
       <c r="B285">
         <v>14707</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2">
-        <v>44327.38872685185</v>
+        <v>44333.38872685185</v>
       </c>
       <c r="B287">
         <v>14707.5</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2">
-        <v>44327.38873842593</v>
+        <v>44333.38873842593</v>
       </c>
       <c r="B288">
         <v>14707</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2">
-        <v>44327.38875</v>
+        <v>44333.38875</v>
       </c>
       <c r="B289">
         <v>14709.35</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2">
-        <v>44327.38876157408</v>
+        <v>44333.38876157408</v>
       </c>
       <c r="B290">
         <v>14707.05</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2">
-        <v>44327.38877314814</v>
+        <v>44333.38877314814</v>
       </c>
       <c r="B291">
         <v>14710</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2">
-        <v>44327.38878472222</v>
+        <v>44333.38878472222</v>
       </c>
       <c r="B292">
         <v>14709.35</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2">
-        <v>44327.38881944444</v>
+        <v>44333.38881944444</v>
       </c>
       <c r="B294">
         <v>14710.55</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2">
-        <v>44327.38883101852</v>
+        <v>44333.38883101852</v>
       </c>
       <c r="B295">
         <v>14707</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2">
-        <v>44327.38884259259</v>
+        <v>44333.38884259259</v>
       </c>
       <c r="B296">
         <v>14707.05</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2">
-        <v>44327.38885416667</v>
+        <v>44333.38885416667</v>
       </c>
       <c r="B297">
         <v>14708.15</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2">
-        <v>44327.38886574074</v>
+        <v>44333.38886574074</v>
       </c>
       <c r="B298">
         <v>14706.55</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2">
-        <v>44327.38888888889</v>
+        <v>44333.38888888889</v>
       </c>
       <c r="B300">
         <v>14705.85</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2">
-        <v>44327.38890046296</v>
+        <v>44333.38890046296</v>
       </c>
       <c r="B301">
         <v>14698.05</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2">
-        <v>44327.38891203704</v>
+        <v>44333.38891203704</v>
       </c>
       <c r="B302">
         <v>14698.725</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2">
-        <v>44327.38892361111</v>
+        <v>44333.38892361111</v>
       </c>
       <c r="B303">
         <v>14699.05</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2">
-        <v>44327.38893518518</v>
+        <v>44333.38893518518</v>
       </c>
       <c r="B304">
         <v>14699</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2">
-        <v>44327.38895833334</v>
+        <v>44333.38895833334</v>
       </c>
       <c r="B306">
         <v>14701.75</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2">
-        <v>44327.38896990741</v>
+        <v>44333.38896990741</v>
       </c>
       <c r="B307">
         <v>14703.55</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2">
-        <v>44327.38898148148</v>
+        <v>44333.38898148148</v>
       </c>
       <c r="B308">
         <v>14699.95</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2">
-        <v>44327.38900462963</v>
+        <v>44333.38900462963</v>
       </c>
       <c r="B310">
         <v>14700</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2">
-        <v>44327.38901620371</v>
+        <v>44333.38901620371</v>
       </c>
       <c r="B311">
         <v>14702.1</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2">
-        <v>44327.38902777778</v>
+        <v>44333.38902777778</v>
       </c>
       <c r="B312">
         <v>14702.75</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>44327.38903935185</v>
+        <v>44333.38903935185</v>
       </c>
       <c r="B313">
         <v>14702.85</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>44327.3890625</v>
+        <v>44333.3890625</v>
       </c>
       <c r="B315">
         <v>14701.2</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>44327.38907407408</v>
+        <v>44333.38907407408</v>
       </c>
       <c r="B316">
         <v>14700</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>44327.38908564814</v>
+        <v>44333.38908564814</v>
       </c>
       <c r="B317">
         <v>14700.65</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>44327.38909722222</v>
+        <v>44333.38909722222</v>
       </c>
       <c r="B318">
         <v>14701</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2">
-        <v>44327.3891087963</v>
+        <v>44333.3891087963</v>
       </c>
       <c r="B319">
         <v>14701.5</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>44327.38912037037</v>
+        <v>44333.38912037037</v>
       </c>
       <c r="B320">
         <v>14702</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>44327.38913194444</v>
+        <v>44333.38913194444</v>
       </c>
       <c r="B321">
         <v>14701.95</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>44327.38914351852</v>
+        <v>44333.38914351852</v>
       </c>
       <c r="B322">
         <v>14701.6</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>44327.38915509259</v>
+        <v>44333.38915509259</v>
       </c>
       <c r="B323">
         <v>14702.85</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>44327.38917824074</v>
+        <v>44333.38917824074</v>
       </c>
       <c r="B325">
         <v>14701</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>44327.38918981481</v>
+        <v>44333.38918981481</v>
       </c>
       <c r="B326">
         <v>14704.65</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>44327.38920138889</v>
+        <v>44333.38920138889</v>
       </c>
       <c r="B327">
         <v>14704.8</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>44327.38921296296</v>
+        <v>44333.38921296296</v>
       </c>
       <c r="B328">
         <v>14706.25</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>44327.38922453704</v>
+        <v>44333.38922453704</v>
       </c>
       <c r="B329">
         <v>14707</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
-        <v>44327.38923611111</v>
+        <v>44333.38923611111</v>
       </c>
       <c r="B330">
         <v>14708</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2">
-        <v>44327.38925925926</v>
+        <v>44333.38925925926</v>
       </c>
       <c r="B332">
         <v>14707.85</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2">
-        <v>44327.38927083334</v>
+        <v>44333.38927083334</v>
       </c>
       <c r="B333">
         <v>14707.9</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2">
-        <v>44327.38928240741</v>
+        <v>44333.38928240741</v>
       </c>
       <c r="B334">
         <v>14705.05</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2">
-        <v>44327.38930555555</v>
+        <v>44333.38930555555</v>
       </c>
       <c r="B336">
         <v>14705</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2">
-        <v>44327.38931712963</v>
+        <v>44333.38931712963</v>
       </c>
       <c r="B337">
         <v>14703.4</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2">
-        <v>44327.38932870371</v>
+        <v>44333.38932870371</v>
       </c>
       <c r="B338">
         <v>14703.15</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2">
-        <v>44327.38934027778</v>
+        <v>44333.38934027778</v>
       </c>
       <c r="B339">
         <v>14703.4</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2">
-        <v>44327.38936342593</v>
+        <v>44333.38936342593</v>
       </c>
       <c r="B341">
         <v>14702.95</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2">
-        <v>44327.389375</v>
+        <v>44333.389375</v>
       </c>
       <c r="B342">
         <v>14703.25</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2">
-        <v>44327.38938657408</v>
+        <v>44333.38938657408</v>
       </c>
       <c r="B343">
         <v>14703.7</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2">
-        <v>44327.38939814815</v>
+        <v>44333.38939814815</v>
       </c>
       <c r="B344">
         <v>14703.45</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2">
-        <v>44327.38940972222</v>
+        <v>44333.38940972222</v>
       </c>
       <c r="B345">
         <v>14701.95</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2">
-        <v>44327.3894212963</v>
+        <v>44333.3894212963</v>
       </c>
       <c r="B346">
         <v>14701</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>44327.38944444444</v>
+        <v>44333.38944444444</v>
       </c>
       <c r="B348">
         <v>14701</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>44327.38945601852</v>
+        <v>44333.38945601852</v>
       </c>
       <c r="B349">
         <v>14700.5</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2">
-        <v>44327.38946759259</v>
+        <v>44333.38946759259</v>
       </c>
       <c r="B350">
         <v>14700</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2">
-        <v>44327.38947916667</v>
+        <v>44333.38947916667</v>
       </c>
       <c r="B351">
         <v>14699</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2">
-        <v>44327.38949074074</v>
+        <v>44333.38949074074</v>
       </c>
       <c r="B352">
         <v>14698.05</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2">
-        <v>44327.38951388889</v>
+        <v>44333.38951388889</v>
       </c>
       <c r="B354">
         <v>14696</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2">
-        <v>44327.38952546296</v>
+        <v>44333.38952546296</v>
       </c>
       <c r="B355">
         <v>14697.15</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2">
-        <v>44327.38953703704</v>
+        <v>44333.38953703704</v>
       </c>
       <c r="B356">
         <v>14695.725</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2">
-        <v>44327.38954861111</v>
+        <v>44333.38954861111</v>
       </c>
       <c r="B357">
         <v>14695</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2">
-        <v>44327.38956018518</v>
+        <v>44333.38956018518</v>
       </c>
       <c r="B358">
         <v>14697.45</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2">
-        <v>44327.38958333333</v>
+        <v>44333.38958333333</v>
       </c>
       <c r="B360">
         <v>14695.15</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2">
-        <v>44327.38959490741</v>
+        <v>44333.38959490741</v>
       </c>
       <c r="B361">
         <v>14695</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2">
-        <v>44327.38960648148</v>
+        <v>44333.38960648148</v>
       </c>
       <c r="B362">
         <v>14695.5</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2">
-        <v>44327.38961805555</v>
+        <v>44333.38961805555</v>
       </c>
       <c r="B363">
         <v>14697.6</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2">
-        <v>44327.38962962963</v>
+        <v>44333.38962962963</v>
       </c>
       <c r="B364">
         <v>14698.1</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2">
-        <v>44327.38964120371</v>
+        <v>44333.38964120371</v>
       </c>
       <c r="B365">
         <v>14696.35</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2">
-        <v>44327.38965277778</v>
+        <v>44333.38965277778</v>
       </c>
       <c r="B366">
         <v>14695</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2">
-        <v>44327.38966435185</v>
+        <v>44333.38966435185</v>
       </c>
       <c r="B367">
         <v>14695.5</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2">
-        <v>44327.38967592592</v>
+        <v>44333.38967592592</v>
       </c>
       <c r="B368">
         <v>14694.95</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2">
-        <v>44327.38969907408</v>
+        <v>44333.38969907408</v>
       </c>
       <c r="B370">
         <v>14694.95</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2">
-        <v>44327.38971064815</v>
+        <v>44333.38971064815</v>
       </c>
       <c r="B371">
         <v>14695.95</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2">
-        <v>44327.38972222222</v>
+        <v>44333.38972222222</v>
       </c>
       <c r="B372">
         <v>14697.5</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2">
-        <v>44327.3897337963</v>
+        <v>44333.3897337963</v>
       </c>
       <c r="B373">
         <v>14697.5</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2">
-        <v>44327.38974537037</v>
+        <v>44333.38974537037</v>
       </c>
       <c r="B374">
         <v>14697.55</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2">
-        <v>44327.38975694445</v>
+        <v>44333.38975694445</v>
       </c>
       <c r="B375">
         <v>14698.45</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2">
-        <v>44327.38976851852</v>
+        <v>44333.38976851852</v>
       </c>
       <c r="B376">
         <v>14701.35</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2">
-        <v>44327.38978009259</v>
+        <v>44333.38978009259</v>
       </c>
       <c r="B377">
         <v>14703</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2">
-        <v>44327.38980324074</v>
+        <v>44333.38980324074</v>
       </c>
       <c r="B379">
         <v>14701.7</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2">
-        <v>44327.38981481481</v>
+        <v>44333.38981481481</v>
       </c>
       <c r="B380">
         <v>14702.05</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2">
-        <v>44327.38982638889</v>
+        <v>44333.38982638889</v>
       </c>
       <c r="B381">
         <v>14703.2</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2">
-        <v>44327.38983796296</v>
+        <v>44333.38983796296</v>
       </c>
       <c r="B382">
         <v>14700.8</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2">
-        <v>44327.38984953704</v>
+        <v>44333.38984953704</v>
       </c>
       <c r="B383">
         <v>14699.9</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2">
-        <v>44327.38986111111</v>
+        <v>44333.38986111111</v>
       </c>
       <c r="B384">
         <v>14700.5</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2">
-        <v>44327.38987268518</v>
+        <v>44333.38987268518</v>
       </c>
       <c r="B385">
         <v>14700.7</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2">
-        <v>44327.38988425926</v>
+        <v>44333.38988425926</v>
       </c>
       <c r="B386">
         <v>14700.8</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2">
-        <v>44327.38989583333</v>
+        <v>44333.38989583333</v>
       </c>
       <c r="B387">
         <v>14702.9</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2">
-        <v>44327.38990740741</v>
+        <v>44333.38990740741</v>
       </c>
       <c r="B388">
         <v>14701.9</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2">
-        <v>44327.38991898148</v>
+        <v>44333.38991898148</v>
       </c>
       <c r="B389">
         <v>14703.9</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2">
-        <v>44327.38993055555</v>
+        <v>44333.38993055555</v>
       </c>
       <c r="B390">
         <v>14702.95</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2">
-        <v>44327.38995370371</v>
+        <v>44333.38995370371</v>
       </c>
       <c r="B392">
         <v>14704.55</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2">
-        <v>44327.38996527778</v>
+        <v>44333.38996527778</v>
       </c>
       <c r="B393">
         <v>14703</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2">
-        <v>44327.38997685185</v>
+        <v>44333.38997685185</v>
       </c>
       <c r="B394">
         <v>14705.25</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2">
-        <v>44327.39</v>
+        <v>44333.39</v>
       </c>
       <c r="B396">
         <v>14706.225</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2">
-        <v>44327.39001157408</v>
+        <v>44333.39001157408</v>
       </c>
       <c r="B397">
         <v>14705.15</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2">
-        <v>44327.39002314815</v>
+        <v>44333.39002314815</v>
       </c>
       <c r="B398">
         <v>14705.15</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2">
-        <v>44327.39003472222</v>
+        <v>44333.39003472222</v>
       </c>
       <c r="B399">
         <v>14704.95</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2">
-        <v>44327.3900462963</v>
+        <v>44333.3900462963</v>
       </c>
       <c r="B400">
         <v>14704.5</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2">
-        <v>44327.39005787037</v>
+        <v>44333.39005787037</v>
       </c>
       <c r="B401">
         <v>14706.85</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2">
-        <v>44327.39008101852</v>
+        <v>44333.39008101852</v>
       </c>
       <c r="B403">
         <v>14704.9</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2">
-        <v>44327.39009259259</v>
+        <v>44333.39009259259</v>
       </c>
       <c r="B404">
         <v>14707.5</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2">
-        <v>44327.39011574074</v>
+        <v>44333.39011574074</v>
       </c>
       <c r="B406">
         <v>14705</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2">
-        <v>44327.39013888889</v>
+        <v>44333.39013888889</v>
       </c>
       <c r="B408">
         <v>14705</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2">
-        <v>44327.39015046296</v>
+        <v>44333.39015046296</v>
       </c>
       <c r="B409">
         <v>14704.65</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2">
-        <v>44327.39016203704</v>
+        <v>44333.39016203704</v>
       </c>
       <c r="B410">
         <v>14705.5</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2">
-        <v>44327.39017361111</v>
+        <v>44333.39017361111</v>
       </c>
       <c r="B411">
         <v>14705.5</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2">
-        <v>44327.39019675926</v>
+        <v>44333.39019675926</v>
       </c>
       <c r="B413">
         <v>14703.675</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2">
-        <v>44327.39021990741</v>
+        <v>44333.39021990741</v>
       </c>
       <c r="B415">
         <v>14704</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2">
-        <v>44327.39024305555</v>
+        <v>44333.39024305555</v>
       </c>
       <c r="B417">
         <v>14703.85</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2">
-        <v>44327.39026620371</v>
+        <v>44333.39026620371</v>
       </c>
       <c r="B419">
         <v>14703.2</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2">
-        <v>44327.39028935185</v>
+        <v>44333.39028935185</v>
       </c>
       <c r="B421">
         <v>14703.85</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2">
-        <v>44327.39030092592</v>
+        <v>44333.39030092592</v>
       </c>
       <c r="B422">
         <v>14705</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2">
-        <v>44327.3903125</v>
+        <v>44333.3903125</v>
       </c>
       <c r="B423">
         <v>14705.4</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2">
-        <v>44327.39033564815</v>
+        <v>44333.39033564815</v>
       </c>
       <c r="B425">
         <v>14706.35</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2">
-        <v>44327.39034722222</v>
+        <v>44333.39034722222</v>
       </c>
       <c r="B426">
         <v>14705.05</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2">
-        <v>44327.3903587963</v>
+        <v>44333.3903587963</v>
       </c>
       <c r="B427">
         <v>14704.5</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2">
-        <v>44327.39037037037</v>
+        <v>44333.39037037037</v>
       </c>
       <c r="B428">
         <v>14705.45</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2">
-        <v>44327.39038194445</v>
+        <v>44333.39038194445</v>
       </c>
       <c r="B429">
         <v>14703.35</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2">
-        <v>44327.39039351852</v>
+        <v>44333.39039351852</v>
       </c>
       <c r="B430">
         <v>14703</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2">
-        <v>44327.39040509259</v>
+        <v>44333.39040509259</v>
       </c>
       <c r="B431">
         <v>14702.4</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2">
-        <v>44327.39041666667</v>
+        <v>44333.39041666667</v>
       </c>
       <c r="B432">
         <v>14702</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2">
-        <v>44327.39042824074</v>
+        <v>44333.39042824074</v>
       </c>
       <c r="B433">
         <v>14700</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2">
-        <v>44327.39043981482</v>
+        <v>44333.39043981482</v>
       </c>
       <c r="B434">
         <v>14700.05</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2">
-        <v>44327.39045138889</v>
+        <v>44333.39045138889</v>
       </c>
       <c r="B435">
         <v>14700.05</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2">
-        <v>44327.39047453704</v>
+        <v>44333.39047453704</v>
       </c>
       <c r="B437">
         <v>14700.3</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2">
-        <v>44327.39048611111</v>
+        <v>44333.39048611111</v>
       </c>
       <c r="B438">
         <v>14700</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2">
-        <v>44327.39049768518</v>
+        <v>44333.39049768518</v>
       </c>
       <c r="B439">
         <v>14700</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2">
-        <v>44327.39050925926</v>
+        <v>44333.39050925926</v>
       </c>
       <c r="B440">
         <v>14700.25</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2">
-        <v>44327.39052083333</v>
+        <v>44333.39052083333</v>
       </c>
       <c r="B441">
         <v>14700</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2">
-        <v>44327.39053240741</v>
+        <v>44333.39053240741</v>
       </c>
       <c r="B442">
         <v>14700.6</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2">
-        <v>44327.39054398148</v>
+        <v>44333.39054398148</v>
       </c>
       <c r="B443">
         <v>14700.45</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2">
-        <v>44327.39055555555</v>
+        <v>44333.39055555555</v>
       </c>
       <c r="B444">
         <v>14700</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2">
-        <v>44327.39056712963</v>
+        <v>44333.39056712963</v>
       </c>
       <c r="B445">
         <v>14700.05</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2">
-        <v>44327.3905787037</v>
+        <v>44333.3905787037</v>
       </c>
       <c r="B446">
         <v>14700.2</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2">
-        <v>44327.39059027778</v>
+        <v>44333.39059027778</v>
       </c>
       <c r="B447">
         <v>14700</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2">
-        <v>44327.39060185185</v>
+        <v>44333.39060185185</v>
       </c>
       <c r="B448">
         <v>14700.2</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2">
-        <v>44327.39061342592</v>
+        <v>44333.39061342592</v>
       </c>
       <c r="B449">
         <v>14701</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2">
-        <v>44327.390625</v>
+        <v>44333.390625</v>
       </c>
       <c r="B450">
         <v>14701.85</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2">
-        <v>44327.39063657408</v>
+        <v>44333.39063657408</v>
       </c>
       <c r="B451">
         <v>14703.05</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2">
-        <v>44327.39064814815</v>
+        <v>44333.39064814815</v>
       </c>
       <c r="B452">
         <v>14703.6</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2">
-        <v>44327.39065972222</v>
+        <v>44333.39065972222</v>
       </c>
       <c r="B453">
         <v>14704.4</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2">
-        <v>44327.3906712963</v>
+        <v>44333.3906712963</v>
       </c>
       <c r="B454">
         <v>14702.9</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2">
-        <v>44327.39068287037</v>
+        <v>44333.39068287037</v>
       </c>
       <c r="B455">
         <v>14703.65</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2">
-        <v>44327.39069444445</v>
+        <v>44333.39069444445</v>
       </c>
       <c r="B456">
         <v>14703.15</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2">
-        <v>44327.39070601852</v>
+        <v>44333.39070601852</v>
       </c>
       <c r="B457">
         <v>14703</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2">
-        <v>44327.39071759259</v>
+        <v>44333.39071759259</v>
       </c>
       <c r="B458">
         <v>14701.5</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2">
-        <v>44327.39072916667</v>
+        <v>44333.39072916667</v>
       </c>
       <c r="B459">
         <v>14701</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2">
-        <v>44327.39075231482</v>
+        <v>44333.39075231482</v>
       </c>
       <c r="B461">
         <v>14701.5</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2">
-        <v>44327.39076388889</v>
+        <v>44333.39076388889</v>
       </c>
       <c r="B462">
         <v>14698</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2">
-        <v>44327.39077546296</v>
+        <v>44333.39077546296</v>
       </c>
       <c r="B463">
         <v>14699</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2">
-        <v>44327.39078703704</v>
+        <v>44333.39078703704</v>
       </c>
       <c r="B464">
         <v>14697.95</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2">
-        <v>44327.39079861111</v>
+        <v>44333.39079861111</v>
       </c>
       <c r="B465">
         <v>14697.55</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2">
-        <v>44327.39081018518</v>
+        <v>44333.39081018518</v>
       </c>
       <c r="B466">
         <v>14697.2</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2">
-        <v>44327.39082175926</v>
+        <v>44333.39082175926</v>
       </c>
       <c r="B467">
         <v>14696.4</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2">
-        <v>44327.39083333333</v>
+        <v>44333.39083333333</v>
       </c>
       <c r="B468">
         <v>14696</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2">
-        <v>44327.39084490741</v>
+        <v>44333.39084490741</v>
       </c>
       <c r="B469">
         <v>14695.2</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="2">
-        <v>44327.39085648148</v>
+        <v>44333.39085648148</v>
       </c>
       <c r="B470">
         <v>14696</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2">
-        <v>44327.39086805555</v>
+        <v>44333.39086805555</v>
       </c>
       <c r="B471">
         <v>14697</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="2">
-        <v>44327.39087962963</v>
+        <v>44333.39087962963</v>
       </c>
       <c r="B472">
         <v>14696.95</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="2">
-        <v>44327.3908912037</v>
+        <v>44333.3908912037</v>
       </c>
       <c r="B473">
         <v>14693.35</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="2">
-        <v>44327.39090277778</v>
+        <v>44333.39090277778</v>
       </c>
       <c r="B474">
         <v>14690.9</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2">
-        <v>44327.39091435185</v>
+        <v>44333.39091435185</v>
       </c>
       <c r="B475">
         <v>14692.2</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="2">
-        <v>44327.39092592592</v>
+        <v>44333.39092592592</v>
       </c>
       <c r="B476">
         <v>14695.1</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="2">
-        <v>44327.3909375</v>
+        <v>44333.3909375</v>
       </c>
       <c r="B477">
         <v>14695.9</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="2">
-        <v>44327.39094907408</v>
+        <v>44333.39094907408</v>
       </c>
       <c r="B478">
         <v>14695.8</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="2">
-        <v>44327.39096064815</v>
+        <v>44333.39096064815</v>
       </c>
       <c r="B479">
         <v>14698</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2">
-        <v>44327.39097222222</v>
+        <v>44333.39097222222</v>
       </c>
       <c r="B480">
         <v>14697.9</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2">
-        <v>44327.39098379629</v>
+        <v>44333.39098379629</v>
       </c>
       <c r="B481">
         <v>14697.3</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="2">
-        <v>44327.39099537037</v>
+        <v>44333.39099537037</v>
       </c>
       <c r="B482">
         <v>14700</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2">
-        <v>44327.39100694445</v>
+        <v>44333.39100694445</v>
       </c>
       <c r="B483">
         <v>14699</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="2">
-        <v>44327.39101851852</v>
+        <v>44333.39101851852</v>
       </c>
       <c r="B484">
         <v>14700</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2">
-        <v>44327.39103009259</v>
+        <v>44333.39103009259</v>
       </c>
       <c r="B485">
         <v>14700</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2">
-        <v>44327.39104166667</v>
+        <v>44333.39104166667</v>
       </c>
       <c r="B486">
         <v>14700</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2">
-        <v>44327.39105324074</v>
+        <v>44333.39105324074</v>
       </c>
       <c r="B487">
         <v>14699.55</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2">
-        <v>44327.39106481482</v>
+        <v>44333.39106481482</v>
       </c>
       <c r="B488">
         <v>14700</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2">
-        <v>44327.39107638889</v>
+        <v>44333.39107638889</v>
       </c>
       <c r="B489">
         <v>14701.75</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2">
-        <v>44327.39108796296</v>
+        <v>44333.39108796296</v>
       </c>
       <c r="B490">
         <v>14701.15</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="2">
-        <v>44327.39109953704</v>
+        <v>44333.39109953704</v>
       </c>
       <c r="B491">
         <v>14701.55</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="2">
-        <v>44327.39111111111</v>
+        <v>44333.39111111111</v>
       </c>
       <c r="B492">
         <v>14704</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="2">
-        <v>44327.39112268519</v>
+        <v>44333.39112268519</v>
       </c>
       <c r="B493">
         <v>14703</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="2">
-        <v>44327.39113425926</v>
+        <v>44333.39113425926</v>
       </c>
       <c r="B494">
         <v>14702.35</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="2">
-        <v>44327.39114583333</v>
+        <v>44333.39114583333</v>
       </c>
       <c r="B495">
         <v>14704.8</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="2">
-        <v>44327.39115740741</v>
+        <v>44333.39115740741</v>
       </c>
       <c r="B496">
         <v>14703.5</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2">
-        <v>44327.39116898148</v>
+        <v>44333.39116898148</v>
       </c>
       <c r="B497">
         <v>14701.9</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2">
-        <v>44327.39118055555</v>
+        <v>44333.39118055555</v>
       </c>
       <c r="B498">
         <v>14701.9</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2">
-        <v>44327.39119212963</v>
+        <v>44333.39119212963</v>
       </c>
       <c r="B499">
         <v>14702</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2">
-        <v>44327.39122685185</v>
+        <v>44333.39122685185</v>
       </c>
       <c r="B501">
         <v>14701.9</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2">
-        <v>44327.39123842592</v>
+        <v>44333.39123842592</v>
       </c>
       <c r="B502">
         <v>14703.5</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2">
-        <v>44327.39125</v>
+        <v>44333.39125</v>
       </c>
       <c r="B503">
         <v>14702.7</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2">
-        <v>44327.39126157408</v>
+        <v>44333.39126157408</v>
       </c>
       <c r="B504">
         <v>14702.65</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2">
-        <v>44327.39127314815</v>
+        <v>44333.39127314815</v>
       </c>
       <c r="B505">
         <v>14702.5</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2">
-        <v>44327.39128472222</v>
+        <v>44333.39128472222</v>
       </c>
       <c r="B506">
         <v>14700.95</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2">
-        <v>44327.39130787037</v>
+        <v>44333.39130787037</v>
       </c>
       <c r="B508">
         <v>14702.2</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2">
-        <v>44327.39131944445</v>
+        <v>44333.39131944445</v>
       </c>
       <c r="B509">
         <v>14701.7</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2">
-        <v>44327.39133101852</v>
+        <v>44333.39133101852</v>
       </c>
       <c r="B510">
         <v>14703.7</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2">
-        <v>44327.39135416667</v>
+        <v>44333.39135416667</v>
       </c>
       <c r="B512">
         <v>14703.7</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="2">
-        <v>44327.39136574074</v>
+        <v>44333.39136574074</v>
       </c>
       <c r="B513">
         <v>14703.5</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="2">
-        <v>44327.39137731482</v>
+        <v>44333.39137731482</v>
       </c>
       <c r="B514">
         <v>14703.7</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="2">
-        <v>44327.39138888889</v>
+        <v>44333.39138888889</v>
       </c>
       <c r="B515">
         <v>14704.15</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="2">
-        <v>44327.39140046296</v>
+        <v>44333.39140046296</v>
       </c>
       <c r="B516">
         <v>14705</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="2">
-        <v>44327.39141203704</v>
+        <v>44333.39141203704</v>
       </c>
       <c r="B517">
         <v>14704.05</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="2">
-        <v>44327.39142361111</v>
+        <v>44333.39142361111</v>
       </c>
       <c r="B518">
         <v>14705.4</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="2">
-        <v>44327.39143518519</v>
+        <v>44333.39143518519</v>
       </c>
       <c r="B519">
         <v>14704.8</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="2">
-        <v>44327.39144675926</v>
+        <v>44333.39144675926</v>
       </c>
       <c r="B520">
         <v>14704.5</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="2">
-        <v>44327.39145833333</v>
+        <v>44333.39145833333</v>
       </c>
       <c r="B521">
         <v>14701.3</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="2">
-        <v>44327.39148148148</v>
+        <v>44333.39148148148</v>
       </c>
       <c r="B523">
         <v>14703.45</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="2">
-        <v>44327.39149305555</v>
+        <v>44333.39149305555</v>
       </c>
       <c r="B524">
         <v>14704</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="2">
-        <v>44327.39150462963</v>
+        <v>44333.39150462963</v>
       </c>
       <c r="B525">
         <v>14704</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="2">
-        <v>44327.3915162037</v>
+        <v>44333.3915162037</v>
       </c>
       <c r="B526">
         <v>14704</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="2">
-        <v>44327.39152777778</v>
+        <v>44333.39152777778</v>
       </c>
       <c r="B527">
         <v>14704.8</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="2">
-        <v>44327.39155092592</v>
+        <v>44333.39155092592</v>
       </c>
       <c r="B529">
         <v>14703.8</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="2">
-        <v>44327.3915625</v>
+        <v>44333.3915625</v>
       </c>
       <c r="B530">
         <v>14704</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="2">
-        <v>44327.39157407408</v>
+        <v>44333.39157407408</v>
       </c>
       <c r="B531">
         <v>14704</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="2">
-        <v>44327.39158564815</v>
+        <v>44333.39158564815</v>
       </c>
       <c r="B532">
         <v>14704</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="2">
-        <v>44327.39159722222</v>
+        <v>44333.39159722222</v>
       </c>
       <c r="B533">
         <v>14704</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="2">
-        <v>44327.39162037037</v>
+        <v>44333.39162037037</v>
       </c>
       <c r="B535">
         <v>14705.95</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="2">
-        <v>44327.39163194445</v>
+        <v>44333.39163194445</v>
       </c>
       <c r="B536">
         <v>14706</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="2">
-        <v>44327.39164351852</v>
+        <v>44333.39164351852</v>
       </c>
       <c r="B537">
         <v>14704.3</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="2">
-        <v>44327.39165509259</v>
+        <v>44333.39165509259</v>
       </c>
       <c r="B538">
         <v>14706</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="2">
-        <v>44327.39166666667</v>
+        <v>44333.39166666667</v>
       </c>
       <c r="B539">
         <v>14705.55</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="2">
-        <v>44327.39167824074</v>
+        <v>44333.39167824074</v>
       </c>
       <c r="B540">
         <v>14705.9</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="2">
-        <v>44327.39168981482</v>
+        <v>44333.39168981482</v>
       </c>
       <c r="B541">
         <v>14707</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="2">
-        <v>44327.39170138889</v>
+        <v>44333.39170138889</v>
       </c>
       <c r="B542">
         <v>14707.5</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="2">
-        <v>44327.39172453704</v>
+        <v>44333.39172453704</v>
       </c>
       <c r="B544">
         <v>14708.45</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="2">
-        <v>44327.39173611111</v>
+        <v>44333.39173611111</v>
       </c>
       <c r="B545">
         <v>14707</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="2">
-        <v>44327.39174768519</v>
+        <v>44333.39174768519</v>
       </c>
       <c r="B546">
         <v>14705.3</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="2">
-        <v>44327.39175925926</v>
+        <v>44333.39175925926</v>
       </c>
       <c r="B547">
         <v>14705</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="2">
-        <v>44327.39177083333</v>
+        <v>44333.39177083333</v>
       </c>
       <c r="B548">
         <v>14704.95</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="2">
-        <v>44327.39178240741</v>
+        <v>44333.39178240741</v>
       </c>
       <c r="B549">
         <v>14704</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="2">
-        <v>44327.39179398148</v>
+        <v>44333.39179398148</v>
       </c>
       <c r="B550">
         <v>14704</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="2">
-        <v>44327.39180555556</v>
+        <v>44333.39180555556</v>
       </c>
       <c r="B551">
         <v>14703.5</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="2">
-        <v>44327.39181712963</v>
+        <v>44333.39181712963</v>
       </c>
       <c r="B552">
         <v>14702.7</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="2">
-        <v>44327.3918287037</v>
+        <v>44333.3918287037</v>
       </c>
       <c r="B553">
         <v>14701</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="2">
-        <v>44327.39184027778</v>
+        <v>44333.39184027778</v>
       </c>
       <c r="B554">
         <v>14702.35</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="2">
-        <v>44327.39185185185</v>
+        <v>44333.39185185185</v>
       </c>
       <c r="B555">
         <v>14699.25</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="2">
-        <v>44327.39186342592</v>
+        <v>44333.39186342592</v>
       </c>
       <c r="B556">
         <v>14698</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="2">
-        <v>44327.391875</v>
+        <v>44333.391875</v>
       </c>
       <c r="B557">
         <v>14699.85</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="2">
-        <v>44327.39188657407</v>
+        <v>44333.39188657407</v>
       </c>
       <c r="B558">
         <v>14697.3</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="2">
-        <v>44327.39190972222</v>
+        <v>44333.39190972222</v>
       </c>
       <c r="B560">
         <v>14698.5</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="2">
-        <v>44327.39192129629</v>
+        <v>44333.39192129629</v>
       </c>
       <c r="B561">
         <v>14700</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="2">
-        <v>44327.39193287037</v>
+        <v>44333.39193287037</v>
       </c>
       <c r="B562">
         <v>14701.5</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="2">
-        <v>44327.39194444445</v>
+        <v>44333.39194444445</v>
       </c>
       <c r="B563">
         <v>14701.15</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="2">
-        <v>44327.39200231482</v>
+        <v>44333.39200231482</v>
       </c>
       <c r="B565">
         <v>14701.75</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="2">
-        <v>44327.39201388889</v>
+        <v>44333.39201388889</v>
       </c>
       <c r="B566">
         <v>14701.4</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="2">
-        <v>44327.39203703704</v>
+        <v>44333.39203703704</v>
       </c>
       <c r="B568">
         <v>14701</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="2">
-        <v>44327.39204861111</v>
+        <v>44333.39204861111</v>
       </c>
       <c r="B569">
         <v>14700.3</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="2">
-        <v>44327.39206018519</v>
+        <v>44333.39206018519</v>
       </c>
       <c r="B570">
         <v>14700.3</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="2">
-        <v>44327.39207175926</v>
+        <v>44333.39207175926</v>
       </c>
       <c r="B571">
         <v>14702.95</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="2">
-        <v>44327.39208333333</v>
+        <v>44333.39208333333</v>
       </c>
       <c r="B572">
         <v>14700.2</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="2">
-        <v>44327.39209490741</v>
+        <v>44333.39209490741</v>
       </c>
       <c r="B573">
         <v>14700</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="2">
-        <v>44327.39210648148</v>
+        <v>44333.39210648148</v>
       </c>
       <c r="B574">
         <v>14701</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="2">
-        <v>44327.39211805556</v>
+        <v>44333.39211805556</v>
       </c>
       <c r="B575">
         <v>14700</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="2">
-        <v>44327.39212962963</v>
+        <v>44333.39212962963</v>
       </c>
       <c r="B576">
         <v>14699</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="2">
-        <v>44327.3921412037</v>
+        <v>44333.3921412037</v>
       </c>
       <c r="B577">
         <v>14698.75</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="2">
-        <v>44327.39215277778</v>
+        <v>44333.39215277778</v>
       </c>
       <c r="B578">
         <v>14697.15</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="2">
-        <v>44327.39216435186</v>
+        <v>44333.39216435186</v>
       </c>
       <c r="B579">
         <v>14697.05</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="2">
-        <v>44327.3921875</v>
+        <v>44333.3921875</v>
       </c>
       <c r="B581">
         <v>14697.5</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="2">
-        <v>44327.39221064815</v>
+        <v>44333.39221064815</v>
       </c>
       <c r="B583">
         <v>14698</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="2">
-        <v>44327.39222222222</v>
+        <v>44333.39222222222</v>
       </c>
       <c r="B584">
         <v>14698.5</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="2">
-        <v>44327.39223379629</v>
+        <v>44333.39223379629</v>
       </c>
       <c r="B585">
         <v>14696.3</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="2">
-        <v>44327.39224537037</v>
+        <v>44333.39224537037</v>
       </c>
       <c r="B586">
         <v>14695.25</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="2">
-        <v>44327.39225694445</v>
+        <v>44333.39225694445</v>
       </c>
       <c r="B587">
         <v>14695</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="2">
-        <v>44327.39226851852</v>
+        <v>44333.39226851852</v>
       </c>
       <c r="B588">
         <v>14695.9</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="2">
-        <v>44327.39229166666</v>
+        <v>44333.39229166666</v>
       </c>
       <c r="B590">
         <v>14695.05</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="2">
-        <v>44327.39230324074</v>
+        <v>44333.39230324074</v>
       </c>
       <c r="B591">
         <v>14696.05</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="2">
-        <v>44327.39231481482</v>
+        <v>44333.39231481482</v>
       </c>
       <c r="B592">
         <v>14696.3</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="2">
-        <v>44327.39232638889</v>
+        <v>44333.39232638889</v>
       </c>
       <c r="B593">
         <v>14696.7</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="2">
-        <v>44327.39233796296</v>
+        <v>44333.39233796296</v>
       </c>
       <c r="B594">
         <v>14697.35</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="2">
-        <v>44327.39236111111</v>
+        <v>44333.39236111111</v>
       </c>
       <c r="B596">
         <v>14696.65</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="2">
-        <v>44327.39237268519</v>
+        <v>44333.39237268519</v>
       </c>
       <c r="B597">
         <v>14699.6</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="2">
-        <v>44327.39238425926</v>
+        <v>44333.39238425926</v>
       </c>
       <c r="B598">
         <v>14698.05</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="2">
-        <v>44327.39239583333</v>
+        <v>44333.39239583333</v>
       </c>
       <c r="B599">
         <v>14697.9</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="2">
-        <v>44327.39240740741</v>
+        <v>44333.39240740741</v>
       </c>
       <c r="B600">
         <v>14695.95</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="2">
-        <v>44327.39241898148</v>
+        <v>44333.39241898148</v>
       </c>
       <c r="B601">
         <v>14695</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="2">
-        <v>44327.39243055556</v>
+        <v>44333.39243055556</v>
       </c>
       <c r="B602">
         <v>14693.5</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="2">
-        <v>44327.39244212963</v>
+        <v>44333.39244212963</v>
       </c>
       <c r="B603">
         <v>14692.3</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="2">
-        <v>44327.3924537037</v>
+        <v>44333.3924537037</v>
       </c>
       <c r="B604">
         <v>14689.5</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="2">
-        <v>44327.39246527778</v>
+        <v>44333.39246527778</v>
       </c>
       <c r="B605">
         <v>14687.3</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="2">
-        <v>44327.39247685186</v>
+        <v>44333.39247685186</v>
       </c>
       <c r="B606">
         <v>14687.3</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="2">
-        <v>44327.39248842592</v>
+        <v>44333.39248842592</v>
       </c>
       <c r="B607">
         <v>14687.15</v>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="2">
-        <v>44327.3925</v>
+        <v>44333.3925</v>
       </c>
       <c r="B608">
         <v>14691.25</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="2">
-        <v>44327.39251157407</v>
+        <v>44333.39251157407</v>
       </c>
       <c r="B609">
         <v>14691.15</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="2">
-        <v>44327.39252314815</v>
+        <v>44333.39252314815</v>
       </c>
       <c r="B610">
         <v>14693.15</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="2">
-        <v>44327.39253472222</v>
+        <v>44333.39253472222</v>
       </c>
       <c r="B611">
         <v>14689.5</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="2">
-        <v>44327.39254629629</v>
+        <v>44333.39254629629</v>
       </c>
       <c r="B612">
         <v>14690.1</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="2">
-        <v>44327.39255787037</v>
+        <v>44333.39255787037</v>
       </c>
       <c r="B613">
         <v>14692</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="2">
-        <v>44327.39256944445</v>
+        <v>44333.39256944445</v>
       </c>
       <c r="B614">
         <v>14692.5</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="2">
-        <v>44327.39258101852</v>
+        <v>44333.39258101852</v>
       </c>
       <c r="B615">
         <v>14694.6</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="2">
-        <v>44327.39259259259</v>
+        <v>44333.39259259259</v>
       </c>
       <c r="B616">
         <v>14692.9</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="2">
-        <v>44327.39260416666</v>
+        <v>44333.39260416666</v>
       </c>
       <c r="B617">
         <v>14697.1</v>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="2">
-        <v>44327.39261574074</v>
+        <v>44333.39261574074</v>
       </c>
       <c r="B618">
         <v>14693.9</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="2">
-        <v>44327.39262731482</v>
+        <v>44333.39262731482</v>
       </c>
       <c r="B619">
         <v>14693.6</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="2">
-        <v>44327.39263888889</v>
+        <v>44333.39263888889</v>
       </c>
       <c r="B620">
         <v>14693.65</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="2">
-        <v>44327.39265046296</v>
+        <v>44333.39265046296</v>
       </c>
       <c r="B621">
         <v>14694.6</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="2">
-        <v>44327.39266203704</v>
+        <v>44333.39266203704</v>
       </c>
       <c r="B622">
         <v>14697</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="2">
-        <v>44327.39267361111</v>
+        <v>44333.39267361111</v>
       </c>
       <c r="B623">
         <v>14697.2</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="2">
-        <v>44327.39268518519</v>
+        <v>44333.39268518519</v>
       </c>
       <c r="B624">
         <v>14695.15</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="2">
-        <v>44327.39269675926</v>
+        <v>44333.39269675926</v>
       </c>
       <c r="B625">
         <v>14696</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="2">
-        <v>44327.39271990741</v>
+        <v>44333.39271990741</v>
       </c>
       <c r="B627">
         <v>14696.4</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="2">
-        <v>44327.39273148148</v>
+        <v>44333.39273148148</v>
       </c>
       <c r="B628">
         <v>14695.15</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="2">
-        <v>44327.39274305556</v>
+        <v>44333.39274305556</v>
       </c>
       <c r="B629">
         <v>14694</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="2">
-        <v>44327.39275462963</v>
+        <v>44333.39275462963</v>
       </c>
       <c r="B630">
         <v>14695.25</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="2">
-        <v>44327.3927662037</v>
+        <v>44333.3927662037</v>
       </c>
       <c r="B631">
         <v>14693.6</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="2">
-        <v>44327.39277777778</v>
+        <v>44333.39277777778</v>
       </c>
       <c r="B632">
         <v>14693.4</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="2">
-        <v>44327.39278935185</v>
+        <v>44333.39278935185</v>
       </c>
       <c r="B633">
         <v>14693.05</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="2">
-        <v>44327.39280092593</v>
+        <v>44333.39280092593</v>
       </c>
       <c r="B634">
         <v>14693.4</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="2">
-        <v>44327.3928125</v>
+        <v>44333.3928125</v>
       </c>
       <c r="B635">
         <v>14694</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="2">
-        <v>44327.39282407407</v>
+        <v>44333.39282407407</v>
       </c>
       <c r="B636">
         <v>14693.15</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="2">
-        <v>44327.39283564815</v>
+        <v>44333.39283564815</v>
       </c>
       <c r="B637">
         <v>14693.1</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="2">
-        <v>44327.39284722223</v>
+        <v>44333.39284722223</v>
       </c>
       <c r="B638">
         <v>14693.1</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="2">
-        <v>44327.39285879629</v>
+        <v>44333.39285879629</v>
       </c>
       <c r="B639">
         <v>14693</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="2">
-        <v>44327.39287037037</v>
+        <v>44333.39287037037</v>
       </c>
       <c r="B640">
         <v>14694.25</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="2">
-        <v>44327.39288194444</v>
+        <v>44333.39288194444</v>
       </c>
       <c r="B641">
         <v>14695</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="2">
-        <v>44327.39289351852</v>
+        <v>44333.39289351852</v>
       </c>
       <c r="B642">
         <v>14693</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="2">
-        <v>44327.39290509259</v>
+        <v>44333.39290509259</v>
       </c>
       <c r="B643">
         <v>14694.4</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="2">
-        <v>44327.39291666666</v>
+        <v>44333.39291666666</v>
       </c>
       <c r="B644">
         <v>14693.4</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="2">
-        <v>44327.39292824074</v>
+        <v>44333.39292824074</v>
       </c>
       <c r="B645">
         <v>14695</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="2">
-        <v>44327.39293981482</v>
+        <v>44333.39293981482</v>
       </c>
       <c r="B646">
         <v>14695</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="2">
-        <v>44327.39295138889</v>
+        <v>44333.39295138889</v>
       </c>
       <c r="B647">
         <v>14695</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="2">
-        <v>44327.39296296296</v>
+        <v>44333.39296296296</v>
       </c>
       <c r="B648">
         <v>14695.15</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="2">
-        <v>44327.39297453704</v>
+        <v>44333.39297453704</v>
       </c>
       <c r="B649">
         <v>14695</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="2">
-        <v>44327.39298611111</v>
+        <v>44333.39298611111</v>
       </c>
       <c r="B650">
         <v>14695</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="2">
-        <v>44327.39299768519</v>
+        <v>44333.39299768519</v>
       </c>
       <c r="B651">
         <v>14695</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="2">
-        <v>44327.39300925926</v>
+        <v>44333.39300925926</v>
       </c>
       <c r="B652">
         <v>14692.6</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="2">
-        <v>44327.39302083333</v>
+        <v>44333.39302083333</v>
       </c>
       <c r="B653">
         <v>14693</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="2">
-        <v>44327.39303240741</v>
+        <v>44333.39303240741</v>
       </c>
       <c r="B654">
         <v>14693</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="2">
-        <v>44327.39304398148</v>
+        <v>44333.39304398148</v>
       </c>
       <c r="B655">
         <v>14694.3</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="2">
-        <v>44327.39305555556</v>
+        <v>44333.39305555556</v>
       </c>
       <c r="B656">
         <v>14691.7</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="2">
-        <v>44327.39306712963</v>
+        <v>44333.39306712963</v>
       </c>
       <c r="B657">
         <v>14691.3</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="2">
-        <v>44327.3930787037</v>
+        <v>44333.3930787037</v>
       </c>
       <c r="B658">
         <v>14691.3</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="2">
-        <v>44327.39309027778</v>
+        <v>44333.39309027778</v>
       </c>
       <c r="B659">
         <v>14691.85</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="2">
-        <v>44327.39310185185</v>
+        <v>44333.39310185185</v>
       </c>
       <c r="B660">
         <v>14692.45</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="2">
-        <v>44327.39311342593</v>
+        <v>44333.39311342593</v>
       </c>
       <c r="B661">
         <v>14691.35</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="2">
-        <v>44327.393125</v>
+        <v>44333.393125</v>
       </c>
       <c r="B662">
         <v>14691.2</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="2">
-        <v>44327.39313657407</v>
+        <v>44333.39313657407</v>
       </c>
       <c r="B663">
         <v>14690.55</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="2">
-        <v>44327.39314814815</v>
+        <v>44333.39314814815</v>
       </c>
       <c r="B664">
         <v>14690.8</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="2">
-        <v>44327.39315972223</v>
+        <v>44333.39315972223</v>
       </c>
       <c r="B665">
         <v>14690.15</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="2">
-        <v>44327.39317129629</v>
+        <v>44333.39317129629</v>
       </c>
       <c r="B666">
         <v>14691.2</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="2">
-        <v>44327.39318287037</v>
+        <v>44333.39318287037</v>
       </c>
       <c r="B667">
         <v>14691.95</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="2">
-        <v>44327.39319444444</v>
+        <v>44333.39319444444</v>
       </c>
       <c r="B668">
         <v>14690</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="2">
-        <v>44327.39321759259</v>
+        <v>44333.39321759259</v>
       </c>
       <c r="B670">
         <v>14689.8</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="2">
-        <v>44327.39322916666</v>
+        <v>44333.39322916666</v>
       </c>
       <c r="B671">
         <v>14690</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="2">
-        <v>44327.39324074074</v>
+        <v>44333.39324074074</v>
       </c>
       <c r="B672">
         <v>14689.35</v>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="674" spans="1:3">
       <c r="A674" s="2">
-        <v>44327.39326388889</v>
+        <v>44333.39326388889</v>
       </c>
       <c r="B674">
         <v>14690.15</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="676" spans="1:3">
       <c r="A676" s="2">
-        <v>44327.39331018519</v>
+        <v>44333.39331018519</v>
       </c>
       <c r="B676">
         <v>14691.2</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="677" spans="1:3">
       <c r="A677" s="2">
-        <v>44327.39332175926</v>
+        <v>44333.39332175926</v>
       </c>
       <c r="B677">
         <v>14691.2</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="2">
-        <v>44327.39334490741</v>
+        <v>44333.39334490741</v>
       </c>
       <c r="B679">
         <v>14690.45</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="680" spans="1:3">
       <c r="A680" s="2">
-        <v>44327.39335648148</v>
+        <v>44333.39335648148</v>
       </c>
       <c r="B680">
         <v>14688.5</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="681" spans="1:3">
       <c r="A681" s="2">
-        <v>44327.39336805556</v>
+        <v>44333.39336805556</v>
       </c>
       <c r="B681">
         <v>14688.6</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="2">
-        <v>44327.39337962963</v>
+        <v>44333.39337962963</v>
       </c>
       <c r="B682">
         <v>14688.45</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="2">
-        <v>44327.39341435185</v>
+        <v>44333.39341435185</v>
       </c>
       <c r="B684">
         <v>14690.3</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="2">
-        <v>44327.39342592593</v>
+        <v>44333.39342592593</v>
       </c>
       <c r="B685">
         <v>14690.8</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="2">
-        <v>44327.3934375</v>
+        <v>44333.3934375</v>
       </c>
       <c r="B686">
         <v>14691.3</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="2">
-        <v>44327.39344907407</v>
+        <v>44333.39344907407</v>
       </c>
       <c r="B687">
         <v>14691.55</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="2">
-        <v>44327.39346064815</v>
+        <v>44333.39346064815</v>
       </c>
       <c r="B688">
         <v>14693</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="2">
-        <v>44327.39347222223</v>
+        <v>44333.39347222223</v>
       </c>
       <c r="B689">
         <v>14690.8</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="2">
-        <v>44327.3934837963</v>
+        <v>44333.3934837963</v>
       </c>
       <c r="B690">
         <v>14690.8</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="2">
-        <v>44327.39349537037</v>
+        <v>44333.39349537037</v>
       </c>
       <c r="B691">
         <v>14691.55</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="2">
-        <v>44327.39350694444</v>
+        <v>44333.39350694444</v>
       </c>
       <c r="B692">
         <v>14692.4</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="2">
-        <v>44327.39351851852</v>
+        <v>44333.39351851852</v>
       </c>
       <c r="B693">
         <v>14692.65</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="2">
-        <v>44327.3935300926</v>
+        <v>44333.3935300926</v>
       </c>
       <c r="B694">
         <v>14692.6</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="696" spans="1:3">
       <c r="A696" s="2">
-        <v>44327.39355324074</v>
+        <v>44333.39355324074</v>
       </c>
       <c r="B696">
         <v>14693.35</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="2">
-        <v>44327.39356481482</v>
+        <v>44333.39356481482</v>
       </c>
       <c r="B697">
         <v>14695</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="698" spans="1:3">
       <c r="A698" s="2">
-        <v>44327.39357638889</v>
+        <v>44333.39357638889</v>
       </c>
       <c r="B698">
         <v>14696.5</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="699" spans="1:3">
       <c r="A699" s="2">
-        <v>44327.39358796296</v>
+        <v>44333.39358796296</v>
       </c>
       <c r="B699">
         <v>14695</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="2">
-        <v>44327.39359953703</v>
+        <v>44333.39359953703</v>
       </c>
       <c r="B700">
         <v>14692.1</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="2">
-        <v>44327.39361111111</v>
+        <v>44333.39361111111</v>
       </c>
       <c r="B701">
         <v>14695.15</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="2">
-        <v>44327.39362268519</v>
+        <v>44333.39362268519</v>
       </c>
       <c r="B702">
         <v>14693.5</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="704" spans="1:3">
       <c r="A704" s="2">
-        <v>44327.39364583333</v>
+        <v>44333.39364583333</v>
       </c>
       <c r="B704">
         <v>14694</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="705" spans="1:3">
       <c r="A705" s="2">
-        <v>44327.39365740741</v>
+        <v>44333.39365740741</v>
       </c>
       <c r="B705">
         <v>14695.85</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="707" spans="1:3">
       <c r="A707" s="2">
-        <v>44327.39369212963</v>
+        <v>44333.39369212963</v>
       </c>
       <c r="B707">
         <v>14696</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="708" spans="1:3">
       <c r="A708" s="2">
-        <v>44327.3937037037</v>
+        <v>44333.3937037037</v>
       </c>
       <c r="B708">
         <v>14695.8</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="709" spans="1:3">
       <c r="A709" s="2">
-        <v>44327.39371527778</v>
+        <v>44333.39371527778</v>
       </c>
       <c r="B709">
         <v>14699</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="2">
-        <v>44327.39372685185</v>
+        <v>44333.39372685185</v>
       </c>
       <c r="B710">
         <v>14699.85</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="711" spans="1:3">
       <c r="A711" s="2">
-        <v>44327.39373842593</v>
+        <v>44333.39373842593</v>
       </c>
       <c r="B711">
         <v>14698.2</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="712" spans="1:3">
       <c r="A712" s="2">
-        <v>44327.39375</v>
+        <v>44333.39375</v>
       </c>
       <c r="B712">
         <v>14699.75</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="713" spans="1:3">
       <c r="A713" s="2">
-        <v>44327.39376157407</v>
+        <v>44333.39376157407</v>
       </c>
       <c r="B713">
         <v>14697.8</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="714" spans="1:3">
       <c r="A714" s="2">
-        <v>44327.39377314815</v>
+        <v>44333.39377314815</v>
       </c>
       <c r="B714">
         <v>14695.15</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="2">
-        <v>44327.39378472222</v>
+        <v>44333.39378472222</v>
       </c>
       <c r="B715">
         <v>14694.45</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="716" spans="1:3">
       <c r="A716" s="2">
-        <v>44327.3937962963</v>
+        <v>44333.3937962963</v>
       </c>
       <c r="B716">
         <v>14695.5</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="717" spans="1:3">
       <c r="A717" s="2">
-        <v>44327.39380787037</v>
+        <v>44333.39380787037</v>
       </c>
       <c r="B717">
         <v>14694.65</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="719" spans="1:3">
       <c r="A719" s="2">
-        <v>44327.39383101852</v>
+        <v>44333.39383101852</v>
       </c>
       <c r="B719">
         <v>14696</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="720" spans="1:3">
       <c r="A720" s="2">
-        <v>44327.3938425926</v>
+        <v>44333.3938425926</v>
       </c>
       <c r="B720">
         <v>14696</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="2">
-        <v>44327.39385416666</v>
+        <v>44333.39385416666</v>
       </c>
       <c r="B721">
         <v>14695</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="2">
-        <v>44327.39386574074</v>
+        <v>44333.39386574074</v>
       </c>
       <c r="B722">
         <v>14693.5</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="2">
-        <v>44327.39388888889</v>
+        <v>44333.39388888889</v>
       </c>
       <c r="B724">
         <v>14693.5</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="2">
-        <v>44327.39390046296</v>
+        <v>44333.39390046296</v>
       </c>
       <c r="B725">
         <v>14693.35</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="2">
-        <v>44327.39391203703</v>
+        <v>44333.39391203703</v>
       </c>
       <c r="B726">
         <v>14694.5</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="2">
-        <v>44327.39394675926</v>
+        <v>44333.39394675926</v>
       </c>
       <c r="B728">
         <v>14694</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="2">
-        <v>44327.39395833333</v>
+        <v>44333.39395833333</v>
       </c>
       <c r="B729">
         <v>14693.5</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="2">
-        <v>44327.39396990741</v>
+        <v>44333.39396990741</v>
       </c>
       <c r="B730">
         <v>14693.5</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="2">
-        <v>44327.39398148148</v>
+        <v>44333.39398148148</v>
       </c>
       <c r="B731">
         <v>14693.25</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="2">
-        <v>44327.39400462963</v>
+        <v>44333.39400462963</v>
       </c>
       <c r="B733">
         <v>14694</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="2">
-        <v>44327.3940162037</v>
+        <v>44333.3940162037</v>
       </c>
       <c r="B734">
         <v>14694.9</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="2">
-        <v>44327.39402777778</v>
+        <v>44333.39402777778</v>
       </c>
       <c r="B735">
         <v>14695</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="2">
-        <v>44327.39403935185</v>
+        <v>44333.39403935185</v>
       </c>
       <c r="B736">
         <v>14696</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="2">
-        <v>44327.3940625</v>
+        <v>44333.3940625</v>
       </c>
       <c r="B738">
         <v>14698</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="2">
-        <v>44327.39408564815</v>
+        <v>44333.39408564815</v>
       </c>
       <c r="B740">
         <v>14696.5</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="2">
-        <v>44327.3941087963</v>
+        <v>44333.3941087963</v>
       </c>
       <c r="B742">
         <v>14700</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="2">
-        <v>44327.39413194444</v>
+        <v>44333.39413194444</v>
       </c>
       <c r="B744">
         <v>14698.35</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="2">
-        <v>44327.39414351852</v>
+        <v>44333.39414351852</v>
       </c>
       <c r="B745">
         <v>14699.95</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="2">
-        <v>44327.3941550926</v>
+        <v>44333.3941550926</v>
       </c>
       <c r="B746">
         <v>14700</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="2">
-        <v>44327.39417824074</v>
+        <v>44333.39417824074</v>
       </c>
       <c r="B748">
         <v>14697.95</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="2">
-        <v>44327.39418981481</v>
+        <v>44333.39418981481</v>
       </c>
       <c r="B749">
         <v>14697</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="2">
-        <v>44327.39420138889</v>
+        <v>44333.39420138889</v>
       </c>
       <c r="B750">
         <v>14697</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="2">
-        <v>44327.39421296296</v>
+        <v>44333.39421296296</v>
       </c>
       <c r="B751">
         <v>14696</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="2">
-        <v>44327.39422453703</v>
+        <v>44333.39422453703</v>
       </c>
       <c r="B752">
         <v>14697.5</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="754" spans="1:3">
       <c r="A754" s="2">
-        <v>44327.39427083333</v>
+        <v>44333.39427083333</v>
       </c>
       <c r="B754">
         <v>14698.45</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="2">
-        <v>44327.3942824074</v>
+        <v>44333.3942824074</v>
       </c>
       <c r="B755">
         <v>14700</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="756" spans="1:3">
       <c r="A756" s="2">
-        <v>44327.39429398148</v>
+        <v>44333.39429398148</v>
       </c>
       <c r="B756">
         <v>14697.55</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757" s="2">
-        <v>44327.39430555556</v>
+        <v>44333.39430555556</v>
       </c>
       <c r="B757">
         <v>14699.05</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="759" spans="1:3">
       <c r="A759" s="2">
-        <v>44327.39434027778</v>
+        <v>44333.39434027778</v>
       </c>
       <c r="B759">
         <v>14697.95</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="760" spans="1:3">
       <c r="A760" s="2">
-        <v>44327.39435185185</v>
+        <v>44333.39435185185</v>
       </c>
       <c r="B760">
         <v>14697.85</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761" s="2">
-        <v>44327.39436342593</v>
+        <v>44333.39436342593</v>
       </c>
       <c r="B761">
         <v>14699.95</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="763" spans="1:3">
       <c r="A763" s="2">
-        <v>44327.39438657407</v>
+        <v>44333.39438657407</v>
       </c>
       <c r="B763">
         <v>14700</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="764" spans="1:3">
       <c r="A764" s="2">
-        <v>44327.39439814815</v>
+        <v>44333.39439814815</v>
       </c>
       <c r="B764">
         <v>14697.95</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="765" spans="1:3">
       <c r="A765" s="2">
-        <v>44327.39440972222</v>
+        <v>44333.39440972222</v>
       </c>
       <c r="B765">
         <v>14699.5</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="766" spans="1:3">
       <c r="A766" s="2">
-        <v>44327.3944212963</v>
+        <v>44333.3944212963</v>
       </c>
       <c r="B766">
         <v>14698.25</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="767" spans="1:3">
       <c r="A767" s="2">
-        <v>44327.39443287037</v>
+        <v>44333.39443287037</v>
       </c>
       <c r="B767">
         <v>14698.5</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="768" spans="1:3">
       <c r="A768" s="2">
-        <v>44327.39444444444</v>
+        <v>44333.39444444444</v>
       </c>
       <c r="B768">
         <v>14698.5</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="2">
-        <v>44327.39445601852</v>
+        <v>44333.39445601852</v>
       </c>
       <c r="B769">
         <v>14698.5</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="2">
-        <v>44327.3944675926</v>
+        <v>44333.3944675926</v>
       </c>
       <c r="B770">
         <v>14696</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="771" spans="1:3">
       <c r="A771" s="2">
-        <v>44327.39447916667</v>
+        <v>44333.39447916667</v>
       </c>
       <c r="B771">
         <v>14696.5</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="773" spans="1:3">
       <c r="A773" s="2">
-        <v>44327.39450231481</v>
+        <v>44333.39450231481</v>
       </c>
       <c r="B773">
         <v>14697</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="774" spans="1:3">
       <c r="A774" s="2">
-        <v>44327.39451388889</v>
+        <v>44333.39451388889</v>
       </c>
       <c r="B774">
         <v>14693.5</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="775" spans="1:3">
       <c r="A775" s="2">
-        <v>44327.39452546297</v>
+        <v>44333.39452546297</v>
       </c>
       <c r="B775">
         <v>14693.7</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="777" spans="1:3">
       <c r="A777" s="2">
-        <v>44327.39456018519</v>
+        <v>44333.39456018519</v>
       </c>
       <c r="B777">
         <v>14695</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="779" spans="1:3">
       <c r="A779" s="2">
-        <v>44327.39458333333</v>
+        <v>44333.39458333333</v>
       </c>
       <c r="B779">
         <v>14694</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="780" spans="1:3">
       <c r="A780" s="2">
-        <v>44327.3945949074</v>
+        <v>44333.3945949074</v>
       </c>
       <c r="B780">
         <v>14694</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="782" spans="1:3">
       <c r="A782" s="2">
-        <v>44327.39461805556</v>
+        <v>44333.39461805556</v>
       </c>
       <c r="B782">
         <v>14693</v>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="783" spans="1:3">
       <c r="A783" s="2">
-        <v>44327.39462962963</v>
+        <v>44333.39462962963</v>
       </c>
       <c r="B783">
         <v>14692.5</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="784" spans="1:3">
       <c r="A784" s="2">
-        <v>44327.3946412037</v>
+        <v>44333.3946412037</v>
       </c>
       <c r="B784">
         <v>14692</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="785" spans="1:3">
       <c r="A785" s="2">
-        <v>44327.39465277778</v>
+        <v>44333.39465277778</v>
       </c>
       <c r="B785">
         <v>14692.05</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="786" spans="1:3">
       <c r="A786" s="2">
-        <v>44327.39466435185</v>
+        <v>44333.39466435185</v>
       </c>
       <c r="B786">
         <v>14692</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="787" spans="1:3">
       <c r="A787" s="2">
-        <v>44327.39467592593</v>
+        <v>44333.39467592593</v>
       </c>
       <c r="B787">
         <v>14692</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="788" spans="1:3">
       <c r="A788" s="2">
-        <v>44327.3946875</v>
+        <v>44333.3946875</v>
       </c>
       <c r="B788">
         <v>14691.75</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="789" spans="1:3">
       <c r="A789" s="2">
-        <v>44327.39469907407</v>
+        <v>44333.39469907407</v>
       </c>
       <c r="B789">
         <v>14691.5</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="790" spans="1:3">
       <c r="A790" s="2">
-        <v>44327.39471064815</v>
+        <v>44333.39471064815</v>
       </c>
       <c r="B790">
         <v>14691.4</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="791" spans="1:3">
       <c r="A791" s="2">
-        <v>44327.39472222222</v>
+        <v>44333.39472222222</v>
       </c>
       <c r="B791">
         <v>14694</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="792" spans="1:3">
       <c r="A792" s="2">
-        <v>44327.3947337963</v>
+        <v>44333.3947337963</v>
       </c>
       <c r="B792">
         <v>14693.5</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="793" spans="1:3">
       <c r="A793" s="2">
-        <v>44327.39474537037</v>
+        <v>44333.39474537037</v>
       </c>
       <c r="B793">
         <v>14693.5</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="794" spans="1:3">
       <c r="A794" s="2">
-        <v>44327.39475694444</v>
+        <v>44333.39475694444</v>
       </c>
       <c r="B794">
         <v>14693.5</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="795" spans="1:3">
       <c r="A795" s="2">
-        <v>44327.39476851852</v>
+        <v>44333.39476851852</v>
       </c>
       <c r="B795">
         <v>14692.45</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="796" spans="1:3">
       <c r="A796" s="2">
-        <v>44327.3947800926</v>
+        <v>44333.3947800926</v>
       </c>
       <c r="B796">
         <v>14692.3</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="797" spans="1:3">
       <c r="A797" s="2">
-        <v>44327.39479166667</v>
+        <v>44333.39479166667</v>
       </c>
       <c r="B797">
         <v>14693.65</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="799" spans="1:3">
       <c r="A799" s="2">
-        <v>44327.39481481481</v>
+        <v>44333.39481481481</v>
       </c>
       <c r="B799">
         <v>14692.5</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="800" spans="1:3">
       <c r="A800" s="2">
-        <v>44327.39482638889</v>
+        <v>44333.39482638889</v>
       </c>
       <c r="B800">
         <v>14692.95</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" s="2">
-        <v>44327.39484953704</v>
+        <v>44333.39484953704</v>
       </c>
       <c r="B802">
         <v>14696</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="804" spans="1:3">
       <c r="A804" s="2">
-        <v>44327.39487268519</v>
+        <v>44333.39487268519</v>
       </c>
       <c r="B804">
         <v>14697</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="805" spans="1:3">
       <c r="A805" s="2">
-        <v>44327.39488425926</v>
+        <v>44333.39488425926</v>
       </c>
       <c r="B805">
         <v>14698</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="807" spans="1:3">
       <c r="A807" s="2">
-        <v>44327.3949074074</v>
+        <v>44333.3949074074</v>
       </c>
       <c r="B807">
         <v>14697.5</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" s="2">
-        <v>44327.39491898148</v>
+        <v>44333.39491898148</v>
       </c>
       <c r="B808">
         <v>14697</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="809" spans="1:3">
       <c r="A809" s="2">
-        <v>44327.39493055556</v>
+        <v>44333.39493055556</v>
       </c>
       <c r="B809">
         <v>14696.55</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="810" spans="1:3">
       <c r="A810" s="2">
-        <v>44327.39494212963</v>
+        <v>44333.39494212963</v>
       </c>
       <c r="B810">
         <v>14697.5</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="811" spans="1:3">
       <c r="A811" s="2">
-        <v>44327.3949537037</v>
+        <v>44333.3949537037</v>
       </c>
       <c r="B811">
         <v>14697.5</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="812" spans="1:3">
       <c r="A812" s="2">
-        <v>44327.39496527778</v>
+        <v>44333.39496527778</v>
       </c>
       <c r="B812">
         <v>14697.5</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="813" spans="1:3">
       <c r="A813" s="2">
-        <v>44327.39497685185</v>
+        <v>44333.39497685185</v>
       </c>
       <c r="B813">
         <v>14697.5</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="814" spans="1:3">
       <c r="A814" s="2">
-        <v>44327.39498842593</v>
+        <v>44333.39498842593</v>
       </c>
       <c r="B814">
         <v>14695.4</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="815" spans="1:3">
       <c r="A815" s="2">
-        <v>44327.395</v>
+        <v>44333.395</v>
       </c>
       <c r="B815">
         <v>14696</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="816" spans="1:3">
       <c r="A816" s="2">
-        <v>44327.39501157407</v>
+        <v>44333.39501157407</v>
       </c>
       <c r="B816">
         <v>14695</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="817" spans="1:3">
       <c r="A817" s="2">
-        <v>44327.39502314815</v>
+        <v>44333.39502314815</v>
       </c>
       <c r="B817">
         <v>14694.5</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="818" spans="1:3">
       <c r="A818" s="2">
-        <v>44327.39503472222</v>
+        <v>44333.39503472222</v>
       </c>
       <c r="B818">
         <v>14694.35</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="820" spans="1:3">
       <c r="A820" s="2">
-        <v>44327.39506944444</v>
+        <v>44333.39506944444</v>
       </c>
       <c r="B820">
         <v>14694.95</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="821" spans="1:3">
       <c r="A821" s="2">
-        <v>44327.39508101852</v>
+        <v>44333.39508101852</v>
       </c>
       <c r="B821">
         <v>14695</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="822" spans="1:3">
       <c r="A822" s="2">
-        <v>44327.39509259259</v>
+        <v>44333.39509259259</v>
       </c>
       <c r="B822">
         <v>14694.7</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="823" spans="1:3">
       <c r="A823" s="2">
-        <v>44327.39510416667</v>
+        <v>44333.39510416667</v>
       </c>
       <c r="B823">
         <v>14694.95</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="824" spans="1:3">
       <c r="A824" s="2">
-        <v>44327.39511574074</v>
+        <v>44333.39511574074</v>
       </c>
       <c r="B824">
         <v>14694.35</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="825" spans="1:3">
       <c r="A825" s="2">
-        <v>44327.39512731481</v>
+        <v>44333.39512731481</v>
       </c>
       <c r="B825">
         <v>14695.45</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" s="2">
-        <v>44327.39513888889</v>
+        <v>44333.39513888889</v>
       </c>
       <c r="B826">
         <v>14696</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="827" spans="1:3">
       <c r="A827" s="2">
-        <v>44327.39515046297</v>
+        <v>44333.39515046297</v>
       </c>
       <c r="B827">
         <v>14693.25</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="2">
-        <v>44327.39516203704</v>
+        <v>44333.39516203704</v>
       </c>
       <c r="B828">
         <v>14693.25</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="2">
-        <v>44327.39518518518</v>
+        <v>44333.39518518518</v>
       </c>
       <c r="B830">
         <v>14693.975</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="2">
-        <v>44327.39520833334</v>
+        <v>44333.39520833334</v>
       </c>
       <c r="B832">
         <v>14692</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="2">
-        <v>44327.39524305556</v>
+        <v>44333.39524305556</v>
       </c>
       <c r="B834">
         <v>14690.3</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="2">
-        <v>44327.39525462963</v>
+        <v>44333.39525462963</v>
       </c>
       <c r="B835">
         <v>14690</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="2">
-        <v>44327.39527777778</v>
+        <v>44333.39527777778</v>
       </c>
       <c r="B837">
         <v>14690.675</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="2">
-        <v>44327.39528935185</v>
+        <v>44333.39528935185</v>
       </c>
       <c r="B838">
         <v>14691.95</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="839" spans="1:3">
       <c r="A839" s="2">
-        <v>44327.39530092593</v>
+        <v>44333.39530092593</v>
       </c>
       <c r="B839">
         <v>14693</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="841" spans="1:3">
       <c r="A841" s="2">
-        <v>44327.39532407407</v>
+        <v>44333.39532407407</v>
       </c>
       <c r="B841">
         <v>14693.05</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="842" spans="1:3">
       <c r="A842" s="2">
-        <v>44327.39533564815</v>
+        <v>44333.39533564815</v>
       </c>
       <c r="B842">
         <v>14694</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="843" spans="1:3">
       <c r="A843" s="2">
-        <v>44327.39534722222</v>
+        <v>44333.39534722222</v>
       </c>
       <c r="B843">
         <v>14692.95</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="844" spans="1:3">
       <c r="A844" s="2">
-        <v>44327.3953587963</v>
+        <v>44333.3953587963</v>
       </c>
       <c r="B844">
         <v>14693.5</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="845" spans="1:3">
       <c r="A845" s="2">
-        <v>44327.39537037037</v>
+        <v>44333.39537037037</v>
       </c>
       <c r="B845">
         <v>14693</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="846" spans="1:3">
       <c r="A846" s="2">
-        <v>44327.39538194444</v>
+        <v>44333.39538194444</v>
       </c>
       <c r="B846">
         <v>14692.25</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="847" spans="1:3">
       <c r="A847" s="2">
-        <v>44327.39539351852</v>
+        <v>44333.39539351852</v>
       </c>
       <c r="B847">
         <v>14694</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="848" spans="1:3">
       <c r="A848" s="2">
-        <v>44327.39540509259</v>
+        <v>44333.39540509259</v>
       </c>
       <c r="B848">
         <v>14692.85</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="849" spans="1:3">
       <c r="A849" s="2">
-        <v>44327.39541666667</v>
+        <v>44333.39541666667</v>
       </c>
       <c r="B849">
         <v>14693</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="851" spans="1:3">
       <c r="A851" s="2">
-        <v>44327.39543981481</v>
+        <v>44333.39543981481</v>
       </c>
       <c r="B851">
         <v>14694.975</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="852" spans="1:3">
       <c r="A852" s="2">
-        <v>44327.39545138889</v>
+        <v>44333.39545138889</v>
       </c>
       <c r="B852">
         <v>14695.3</v>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="853" spans="1:3">
       <c r="A853" s="2">
-        <v>44327.39546296297</v>
+        <v>44333.39546296297</v>
       </c>
       <c r="B853">
         <v>14695.5</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="2">
-        <v>44327.39548611111</v>
+        <v>44333.39548611111</v>
       </c>
       <c r="B855">
         <v>14696.1</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="856" spans="1:3">
       <c r="A856" s="2">
-        <v>44327.39549768518</v>
+        <v>44333.39549768518</v>
       </c>
       <c r="B856">
         <v>14697.5</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="857" spans="1:3">
       <c r="A857" s="2">
-        <v>44327.39550925926</v>
+        <v>44333.39550925926</v>
       </c>
       <c r="B857">
         <v>14696.6</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="858" spans="1:3">
       <c r="A858" s="2">
-        <v>44327.39552083334</v>
+        <v>44333.39552083334</v>
       </c>
       <c r="B858">
         <v>14695.35</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="859" spans="1:3">
       <c r="A859" s="2">
-        <v>44327.3955324074</v>
+        <v>44333.3955324074</v>
       </c>
       <c r="B859">
         <v>14695</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="861" spans="1:3">
       <c r="A861" s="2">
-        <v>44327.39555555556</v>
+        <v>44333.39555555556</v>
       </c>
       <c r="B861">
         <v>14696.5</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862" s="2">
-        <v>44327.39556712963</v>
+        <v>44333.39556712963</v>
       </c>
       <c r="B862">
         <v>14698</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="2">
-        <v>44327.3955787037</v>
+        <v>44333.3955787037</v>
       </c>
       <c r="B863">
         <v>14697.35</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="865" spans="1:3">
       <c r="A865" s="2">
-        <v>44327.39560185185</v>
+        <v>44333.39560185185</v>
       </c>
       <c r="B865">
         <v>14697.325</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="866" spans="1:3">
       <c r="A866" s="2">
-        <v>44327.39561342593</v>
+        <v>44333.39561342593</v>
       </c>
       <c r="B866">
         <v>14697.5</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="868" spans="1:3">
       <c r="A868" s="2">
-        <v>44327.39563657407</v>
+        <v>44333.39563657407</v>
       </c>
       <c r="B868">
         <v>14695.5</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="870" spans="1:3">
       <c r="A870" s="2">
-        <v>44327.39565972222</v>
+        <v>44333.39565972222</v>
       </c>
       <c r="B870">
         <v>14697.525</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="871" spans="1:3">
       <c r="A871" s="2">
-        <v>44327.3956712963</v>
+        <v>44333.3956712963</v>
       </c>
       <c r="B871">
         <v>14697.6</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="872" spans="1:3">
       <c r="A872" s="2">
-        <v>44327.39568287037</v>
+        <v>44333.39568287037</v>
       </c>
       <c r="B872">
         <v>14698.1</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="873" spans="1:3">
       <c r="A873" s="2">
-        <v>44327.39569444444</v>
+        <v>44333.39569444444</v>
       </c>
       <c r="B873">
         <v>14700</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="875" spans="1:3">
       <c r="A875" s="2">
-        <v>44327.39571759259</v>
+        <v>44333.39571759259</v>
       </c>
       <c r="B875">
         <v>14699.1</v>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="876" spans="1:3">
       <c r="A876" s="2">
-        <v>44327.39572916667</v>
+        <v>44333.39572916667</v>
       </c>
       <c r="B876">
         <v>14700</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" s="2">
-        <v>44327.39574074074</v>
+        <v>44333.39574074074</v>
       </c>
       <c r="B877">
         <v>14700</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="878" spans="1:3">
       <c r="A878" s="2">
-        <v>44327.39575231481</v>
+        <v>44333.39575231481</v>
       </c>
       <c r="B878">
         <v>14700</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="879" spans="1:3">
       <c r="A879" s="2">
-        <v>44327.39576388889</v>
+        <v>44333.39576388889</v>
       </c>
       <c r="B879">
         <v>14699.95</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="880" spans="1:3">
       <c r="A880" s="2">
-        <v>44327.39577546297</v>
+        <v>44333.39577546297</v>
       </c>
       <c r="B880">
         <v>14699.45</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="881" spans="1:3">
       <c r="A881" s="2">
-        <v>44327.39578703704</v>
+        <v>44333.39578703704</v>
       </c>
       <c r="B881">
         <v>14698.7</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="883" spans="1:3">
       <c r="A883" s="2">
-        <v>44327.39581018518</v>
+        <v>44333.39581018518</v>
       </c>
       <c r="B883">
         <v>14698.7</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" s="2">
-        <v>44327.39582175926</v>
+        <v>44333.39582175926</v>
       </c>
       <c r="B884">
         <v>14700</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" s="2">
-        <v>44327.39583333334</v>
+        <v>44333.39583333334</v>
       </c>
       <c r="B885">
         <v>14699.2</v>
